--- a/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
+++ b/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECH\Desktop\CEU\SIST.INFORMÁTICOS\2 TRIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE7E272-7E05-442B-B63C-A4F4B641DDB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC60D809-CF45-43BD-A87A-AB32B7123E9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BC5CBF70-75DA-4C7C-BBD6-19381107FCF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>/24</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t xml:space="preserve">200.1.1.256/25         </t>
+  </si>
+  <si>
+    <t>d)Sí, se puede, en la red libre. 32-2 = 30 host. 200.1.1.96 - 200.1.1.127. Su mascara es 255.255.255.224</t>
+  </si>
+  <si>
+    <t>e)foto movil.</t>
+  </si>
+  <si>
+    <t>/21</t>
+  </si>
+  <si>
+    <t>/22</t>
+  </si>
+  <si>
+    <t>/23</t>
   </si>
 </sst>
 </file>
@@ -149,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -274,11 +289,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,6 +317,112 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -304,108 +440,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,19 +778,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2678E093-4CB8-48C1-949C-F6C288EE2268}">
-  <dimension ref="B3:N25"/>
+  <dimension ref="B3:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>8</v>
       </c>
@@ -762,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,267 +848,1763 @@
       <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="6">
+      <c r="O4" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="39"/>
+      <c r="C5" s="42">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="42">
         <v>0</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6">
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="40"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="42">
         <v>1</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="40"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="10" t="s">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="6">
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="40"/>
+      <c r="C13" s="42">
         <v>1</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="40"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="43"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="40"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="43"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="40"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="43"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="43"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="43"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="43"/>
+      <c r="L20" s="46"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N21" s="9"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6">
+        <v>9</v>
+      </c>
+      <c r="E23" s="47">
+        <v>8</v>
+      </c>
+      <c r="F23" s="47">
+        <v>7</v>
+      </c>
+      <c r="G23" s="47">
+        <v>6</v>
+      </c>
+      <c r="H23" s="47">
+        <v>5</v>
+      </c>
+      <c r="I23" s="47">
+        <v>4</v>
+      </c>
+      <c r="J23" s="47">
+        <v>3</v>
+      </c>
+      <c r="K23" s="47">
+        <v>2</v>
+      </c>
+      <c r="L23" s="47">
+        <v>1</v>
+      </c>
+      <c r="M23" s="47">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L24" s="17"/>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F25" s="9"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="43"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="43"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="43"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="43"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="43"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="43"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="43"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="44"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="B5:B20"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="E11:J12"/>
     <mergeCell ref="D13:J20"/>
@@ -1059,11 +2613,6 @@
     <mergeCell ref="L5:L8"/>
     <mergeCell ref="E9:J10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="B5:B20"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
+++ b/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECH\Desktop\CEU\SIST.INFORMÁTICOS\2 TRIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC60D809-CF45-43BD-A87A-AB32B7123E9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8EAA9-BFA6-4282-BC8B-77C9CC85244E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BC5CBF70-75DA-4C7C-BBD6-19381107FCF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>/24</t>
   </si>
@@ -115,6 +115,39 @@
   </si>
   <si>
     <t>/23</t>
+  </si>
+  <si>
+    <t>RED BRAVO</t>
+  </si>
+  <si>
+    <t>135.215.15.255</t>
+  </si>
+  <si>
+    <t>135.215.9.0</t>
+  </si>
+  <si>
+    <t>135.215.10.0/23</t>
+  </si>
+  <si>
+    <t>135.215.8.0/25</t>
+  </si>
+  <si>
+    <t>135.215.8.127/25</t>
+  </si>
+  <si>
+    <t>135.215.11.255</t>
+  </si>
+  <si>
+    <t>135.215.9.255</t>
+  </si>
+  <si>
+    <t>RED ALPHA</t>
+  </si>
+  <si>
+    <t>135.215.12.0</t>
+  </si>
+  <si>
+    <t>RED LIBRE</t>
   </si>
 </sst>
 </file>
@@ -138,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +193,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,94 +377,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -431,37 +416,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2678E093-4CB8-48C1-949C-F6C288EE2268}">
-  <dimension ref="B3:O118"/>
+  <dimension ref="B3:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +900,7 @@
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -848,30 +960,30 @@
       <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="42">
+      <c r="B5" s="19"/>
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="O5" t="s">
@@ -879,230 +991,230 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="42">
+      <c r="B9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="9" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="42">
+      <c r="B13" s="20"/>
+      <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
       <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="46" t="s">
+      <c r="L13" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="46"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="46"/>
+      <c r="L15" s="38"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="46"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="46"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="46"/>
+      <c r="L18" s="38"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="46"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="46"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N21" s="4"/>
@@ -1117,31 +1229,31 @@
       <c r="D23" s="6">
         <v>9</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="10">
         <v>8</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="10">
         <v>7</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="10">
         <v>6</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="10">
         <v>5</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="10">
         <v>4</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="10">
         <v>3</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="10">
         <v>2</v>
       </c>
-      <c r="L23" s="47">
+      <c r="L23" s="10">
         <v>1</v>
       </c>
-      <c r="M23" s="47">
+      <c r="M23" s="10">
         <v>0</v>
       </c>
       <c r="N23" s="6"/>
@@ -1156,263 +1268,263 @@
       <c r="D24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="47" t="s">
+      <c r="H24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="47" t="s">
+      <c r="K24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="47" t="s">
+      <c r="M24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="43"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="6"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="43"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="43"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="6"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="43"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="43"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
       <c r="N39" s="6"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="44"/>
-      <c r="C40" s="52"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1441,529 +1553,613 @@
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="6"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
+      <c r="B43" s="8">
+        <v>11</v>
+      </c>
+      <c r="C43" s="8">
+        <v>10</v>
+      </c>
+      <c r="D43" s="8">
+        <v>9</v>
+      </c>
+      <c r="E43" s="10">
+        <v>8</v>
+      </c>
+      <c r="F43" s="10">
+        <v>7</v>
+      </c>
+      <c r="G43" s="10">
+        <v>6</v>
+      </c>
+      <c r="H43" s="10">
+        <v>5</v>
+      </c>
+      <c r="I43" s="10">
+        <v>4</v>
+      </c>
+      <c r="J43" s="10">
+        <v>3</v>
+      </c>
+      <c r="K43" s="10">
+        <v>2</v>
+      </c>
+      <c r="L43" s="10">
+        <v>1</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
+      <c r="B44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="N44" s="6"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="6"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="13">
+        <v>0</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="54">
+        <v>0</v>
+      </c>
+      <c r="G45" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="6"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="6"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="54">
+        <v>1</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="8"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="28"/>
       <c r="N48" s="6"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="8"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="8"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="8"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="8"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="63">
+        <v>10255</v>
+      </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="71"/>
       <c r="N57" s="6"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="8"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="8"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="54">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
       <c r="N62" s="6"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="54">
+        <v>1</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
       <c r="N63" s="6"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
       <c r="N64" s="6"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
       <c r="N65" s="6"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
       <c r="N66" s="6"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
       <c r="N67" s="6"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
       <c r="N68" s="6"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
       <c r="N69" s="6"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="6"/>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
       <c r="N71" s="6"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
       <c r="N72" s="6"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
       <c r="N73" s="6"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
       <c r="N74" s="6"/>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
       <c r="N75" s="6"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
@@ -2595,14 +2791,154 @@
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
     </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="B5:B20"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C20"/>
+  <mergeCells count="42">
+    <mergeCell ref="G47:M48"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G45:M46"/>
+    <mergeCell ref="E53:M60"/>
+    <mergeCell ref="E49:M52"/>
+    <mergeCell ref="C45:C60"/>
+    <mergeCell ref="D45:D52"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="C61:C76"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="D69:D76"/>
+    <mergeCell ref="B45:B76"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="L11:L12"/>
@@ -2613,6 +2949,12 @@
     <mergeCell ref="L5:L8"/>
     <mergeCell ref="E9:J10"/>
     <mergeCell ref="L9:L10"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="B5:B20"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
+++ b/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhona\Desktop\CEU\SIST.INFORMÁTICOS\2 TRIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0402C61-5725-4FDE-9C5B-CD93822F4F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E0E3C-7AD1-4432-AD81-D555225779A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BC5CBF70-75DA-4C7C-BBD6-19381107FCF3}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" xr2:uid="{BC5CBF70-75DA-4C7C-BBD6-19381107FCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
   <si>
     <t>/24</t>
   </si>
@@ -169,6 +169,78 @@
   </si>
   <si>
     <t>RED CHARLIE</t>
+  </si>
+  <si>
+    <t>150.214.10.0</t>
+  </si>
+  <si>
+    <t>150.214.8.0</t>
+  </si>
+  <si>
+    <t>150.214.12.0</t>
+  </si>
+  <si>
+    <t>150.214.11.255</t>
+  </si>
+  <si>
+    <t>150.214.10.255</t>
+  </si>
+  <si>
+    <t>150.214.11.0</t>
+  </si>
+  <si>
+    <t>150.214.12.255</t>
+  </si>
+  <si>
+    <t>150.214.13.0</t>
+  </si>
+  <si>
+    <t>150.214.13.255</t>
+  </si>
+  <si>
+    <t>150.214.14.0</t>
+  </si>
+  <si>
+    <t>150.214.14.255</t>
+  </si>
+  <si>
+    <t>150.214.15.0</t>
+  </si>
+  <si>
+    <t>150.214.15.255</t>
+  </si>
+  <si>
+    <t>150.214.9.255</t>
+  </si>
+  <si>
+    <t>GATEWAY</t>
+  </si>
+  <si>
+    <t>IPEQUIPO</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>8.8.8.8</t>
+  </si>
+  <si>
+    <t>IP EQUIPO</t>
+  </si>
+  <si>
+    <t>135.215.14.0</t>
+  </si>
+  <si>
+    <t>135.215.</t>
+  </si>
+  <si>
+    <t>135.215.8.50</t>
+  </si>
+  <si>
+    <t>135.215.8.0</t>
   </si>
 </sst>
 </file>
@@ -242,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -382,11 +454,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,6 +514,120 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,6 +637,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,72 +653,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,115 +769,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -958,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2678E093-4CB8-48C1-949C-F6C288EE2268}">
-  <dimension ref="B3:O126"/>
+  <dimension ref="B3:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="H38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -970,6 +1101,10 @@
     <col min="12" max="12" width="12.81640625" customWidth="1"/>
     <col min="13" max="13" width="10.1796875" customWidth="1"/>
     <col min="14" max="14" width="16.26953125" customWidth="1"/>
+    <col min="18" max="18" width="16.36328125" customWidth="1"/>
+    <col min="20" max="20" width="15.26953125" customWidth="1"/>
+    <col min="22" max="22" width="14.453125" customWidth="1"/>
+    <col min="24" max="24" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
@@ -1034,25 +1169,25 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="65"/>
-      <c r="C5" s="17">
+      <c r="B5" s="57"/>
+      <c r="C5" s="16">
         <v>0</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>0</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="15" t="s">
         <v>9</v>
       </c>
       <c r="O5" t="s">
@@ -1060,230 +1195,230 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="66"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="38"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="66"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="38"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="66"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="66"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17">
+      <c r="B9" s="58"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="66"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="66"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="66"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="66"/>
-      <c r="C13" s="17">
+      <c r="B13" s="58"/>
+      <c r="C13" s="16">
         <v>1</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
       <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="49" t="s">
+      <c r="L13" s="95" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="66"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="49"/>
+      <c r="L14" s="95"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="66"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="49"/>
+      <c r="L15" s="95"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="66"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="49"/>
+      <c r="L16" s="95"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="66"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="49"/>
+      <c r="L17" s="95"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="66"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="49"/>
+      <c r="L18" s="95"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="66"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="49"/>
+      <c r="L19" s="95"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="67"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
       <c r="K20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="49"/>
+      <c r="L20" s="95"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="N21" s="3"/>
@@ -1367,8 +1502,8 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -1382,8 +1517,8 @@
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1397,8 +1532,8 @@
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1412,8 +1547,8 @@
       <c r="N27" s="5"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1427,8 +1562,8 @@
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1442,8 +1577,8 @@
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1457,8 +1592,8 @@
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1472,8 +1607,8 @@
       <c r="N31" s="5"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1486,9 +1621,9 @@
       <c r="M32" s="8"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B33" s="17"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1501,9 +1636,9 @@
       <c r="M33" s="8"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1516,9 +1651,9 @@
       <c r="M34" s="8"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1531,9 +1666,9 @@
       <c r="M35" s="8"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1546,9 +1681,9 @@
       <c r="M36" s="8"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1561,9 +1696,9 @@
       <c r="M37" s="8"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1576,9 +1711,9 @@
       <c r="M38" s="8"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1591,9 +1726,9 @@
       <c r="M39" s="8"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1606,7 +1741,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1621,7 +1756,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1636,7 +1771,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
         <v>11</v>
       </c>
@@ -1675,7 +1810,7 @@
       </c>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>27</v>
       </c>
@@ -1713,40 +1848,86 @@
         <v>8</v>
       </c>
       <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B45" s="17">
+      <c r="Q44" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="14"/>
+      <c r="S44" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" s="14"/>
+      <c r="U44" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="V44" s="14"/>
+      <c r="W44" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="X44" s="14"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B45" s="16">
         <v>0</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="51">
         <v>0</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <v>0</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="20">
+      <c r="E45" s="16">
         <v>0</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="F45" s="96">
+        <v>0</v>
+      </c>
+      <c r="G45" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="24"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="21"/>
       <c r="N45" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B46" s="18"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="21"/>
+      <c r="O45" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X45" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B46" s="17"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="97"/>
       <c r="G46" s="25"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
@@ -1757,109 +1938,195 @@
       <c r="N46" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B47" s="18"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="20">
+      <c r="O46" s="15"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X46" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B47" s="17"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="96">
         <v>1</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="13"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="51"/>
       <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B48" s="18"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="16"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R47" s="8"/>
+      <c r="S47" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="T47" s="8"/>
+      <c r="U47" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V47" s="8"/>
+      <c r="W47" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X47" s="8"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B48" s="17"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="56"/>
       <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B49" s="18"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="11" t="s">
+      <c r="O48" s="15"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="V48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W48" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X48" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B49" s="17"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="13"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="51"/>
       <c r="N49" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B50" s="18"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="39"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B50" s="17"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="53"/>
       <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B51" s="18"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="39"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B51" s="17"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="53"/>
       <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B52" s="18"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="16"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B52" s="17"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="56"/>
       <c r="N52" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B53" s="18"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="17">
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B53" s="17"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="16">
         <v>1</v>
       </c>
       <c r="E53" s="28" t="s">
@@ -1876,11 +2143,15 @@
       <c r="N53" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B54" s="18"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="18"/>
+      <c r="O53" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" s="12"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B54" s="17"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="31"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
@@ -1891,11 +2162,13 @@
       <c r="L54" s="32"/>
       <c r="M54" s="33"/>
       <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B55" s="18"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="18"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="12"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B55" s="17"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="31"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
@@ -1906,11 +2179,13 @@
       <c r="L55" s="32"/>
       <c r="M55" s="33"/>
       <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B56" s="18"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="18"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="12"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B56" s="17"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="31"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
@@ -1923,11 +2198,13 @@
       <c r="N56" s="10">
         <v>10255</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B57" s="18"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="18"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="12"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B57" s="17"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="31"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
@@ -1940,11 +2217,13 @@
       <c r="N57" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B58" s="18"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="18"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="12"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B58" s="17"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="31"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
@@ -1955,11 +2234,13 @@
       <c r="L58" s="32"/>
       <c r="M58" s="33"/>
       <c r="N58" s="5"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B59" s="18"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="18"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="12"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B59" s="17"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="31"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
@@ -1970,11 +2251,13 @@
       <c r="L59" s="32"/>
       <c r="M59" s="33"/>
       <c r="N59" s="5"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B60" s="18"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="18"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="12"/>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B60" s="17"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="34"/>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -1987,219 +2270,251 @@
       <c r="N60" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B61" s="18"/>
-      <c r="C61" s="13">
+      <c r="O60" s="15"/>
+      <c r="P60" s="12"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B61" s="17"/>
+      <c r="C61" s="51">
         <v>1</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="16">
         <v>0</v>
       </c>
-      <c r="E61" s="68" t="s">
+      <c r="E61" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="70"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="76"/>
       <c r="N61" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B62" s="18"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="73"/>
+      <c r="O61" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="12"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B62" s="17"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
+      <c r="M62" s="79"/>
       <c r="N62" s="5"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B63" s="18"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="72"/>
-      <c r="M63" s="73"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="12"/>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B63" s="17"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
+      <c r="M63" s="79"/>
       <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B64" s="18"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="72"/>
-      <c r="M64" s="73"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="12"/>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B64" s="17"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="78"/>
+      <c r="M64" s="79"/>
       <c r="N64" s="10">
         <v>12255</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B65" s="18"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="73"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="12"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B65" s="17"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="79"/>
       <c r="N65" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B66" s="18"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="72"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="73"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="12"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B66" s="17"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="79"/>
       <c r="N66" s="5"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B67" s="18"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="73"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="12"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B67" s="17"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="79"/>
       <c r="N67" s="5"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B68" s="18"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="76"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="12"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B68" s="17"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81"/>
+      <c r="M68" s="82"/>
       <c r="N68" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B69" s="18"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="17">
+      <c r="O68" s="15"/>
+      <c r="P68" s="12"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B69" s="17"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="16">
         <v>1</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="16">
         <v>0</v>
       </c>
-      <c r="F69" s="77" t="s">
+      <c r="F69" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="78"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="78"/>
-      <c r="M69" s="79"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="45"/>
       <c r="N69" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B70" s="18"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="81"/>
-      <c r="I70" s="81"/>
-      <c r="J70" s="81"/>
-      <c r="K70" s="81"/>
-      <c r="L70" s="81"/>
-      <c r="M70" s="82"/>
+      <c r="O69" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" s="12"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B70" s="17"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="84"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="85"/>
       <c r="N70" s="5"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B71" s="18"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="81"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="81"/>
-      <c r="M71" s="82"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="12"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B71" s="17"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="85"/>
       <c r="N71" s="5"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B72" s="18"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84"/>
-      <c r="M72" s="85"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="12"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B72" s="17"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="48"/>
       <c r="N72" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B73" s="18"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="17">
+      <c r="O72" s="15"/>
+      <c r="P72" s="12"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B73" s="17"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="16">
         <v>1</v>
       </c>
-      <c r="F73" s="17"/>
+      <c r="F73" s="16">
+        <v>0</v>
+      </c>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
@@ -2208,13 +2523,15 @@
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
       <c r="N73" s="5"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B74" s="18"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="19"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B74" s="17"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -2223,13 +2540,17 @@
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
       <c r="N74" s="5"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B75" s="18"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="17"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B75" s="17"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="16">
+        <v>1</v>
+      </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -2238,13 +2559,15 @@
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
       <c r="N75" s="5"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B76" s="19"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B76" s="18"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -2255,8 +2578,10 @@
       <c r="N76" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2271,7 +2596,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2286,7 +2611,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2301,7 +2626,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2316,277 +2641,389 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="86"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B81" s="5">
+        <v>11</v>
+      </c>
+      <c r="C81" s="5">
+        <v>10</v>
+      </c>
+      <c r="D81" s="5">
+        <v>9</v>
+      </c>
+      <c r="E81" s="5">
+        <v>8</v>
+      </c>
+      <c r="F81" s="5">
+        <v>7</v>
+      </c>
+      <c r="G81" s="5">
+        <v>6</v>
+      </c>
+      <c r="H81" s="5">
+        <v>5</v>
+      </c>
+      <c r="I81" s="5">
+        <v>4</v>
+      </c>
+      <c r="J81" s="5">
+        <v>3</v>
+      </c>
+      <c r="K81" s="5">
+        <v>2</v>
+      </c>
+      <c r="L81" s="5">
+        <v>1</v>
+      </c>
+      <c r="M81" s="5">
+        <v>0</v>
+      </c>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B82" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16">
+        <v>0</v>
+      </c>
+      <c r="D83" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="53"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="53"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O87" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O88" s="15"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O89" s="15"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O90" s="15"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B91" s="17"/>
+      <c r="C91" s="16">
+        <v>1</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O92" s="15"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O93" s="15"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O94" s="15"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="16">
+        <v>1</v>
+      </c>
+      <c r="E95" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O95" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O96" s="15"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="45"/>
+      <c r="N97" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O97" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="48"/>
+      <c r="N98" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O98" s="15"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -2601,7 +3038,7 @@
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -2616,7 +3053,7 @@
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -2631,7 +3068,7 @@
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -2646,7 +3083,7 @@
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -2661,7 +3098,7 @@
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -2676,7 +3113,7 @@
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -2691,7 +3128,7 @@
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -2706,7 +3143,7 @@
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -2721,7 +3158,7 @@
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -2736,7 +3173,7 @@
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -2751,7 +3188,7 @@
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -2766,7 +3203,7 @@
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -2781,7 +3218,7 @@
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3007,13 +3444,15 @@
       <c r="N126" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="57">
     <mergeCell ref="E61:M68"/>
     <mergeCell ref="F69:M72"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="E11:J12"/>
     <mergeCell ref="D13:J20"/>
     <mergeCell ref="L13:L20"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
     <mergeCell ref="E5:J8"/>
     <mergeCell ref="L5:L8"/>
     <mergeCell ref="E9:J10"/>
@@ -3021,6 +3460,15 @@
     <mergeCell ref="C61:C76"/>
     <mergeCell ref="D61:D68"/>
     <mergeCell ref="D69:D76"/>
+    <mergeCell ref="G45:M46"/>
+    <mergeCell ref="E53:M60"/>
+    <mergeCell ref="E49:M52"/>
+    <mergeCell ref="G47:M48"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E45:E48"/>
     <mergeCell ref="B45:B76"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D9:D12"/>
@@ -3030,20 +3478,30 @@
     <mergeCell ref="B5:B20"/>
     <mergeCell ref="C5:C12"/>
     <mergeCell ref="C13:C20"/>
-    <mergeCell ref="G45:M46"/>
-    <mergeCell ref="E53:M60"/>
-    <mergeCell ref="E49:M52"/>
     <mergeCell ref="C45:C60"/>
     <mergeCell ref="D45:D52"/>
     <mergeCell ref="D53:D60"/>
-    <mergeCell ref="G47:M48"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="D87:M90"/>
+    <mergeCell ref="D91:M94"/>
+    <mergeCell ref="E95:M96"/>
+    <mergeCell ref="E97:M98"/>
+    <mergeCell ref="D83:M86"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="O91:O94"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="O53:O60"/>
+    <mergeCell ref="O61:O68"/>
+    <mergeCell ref="O69:O72"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="O87:O90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
+++ b/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhona\Desktop\CEU\SIST.INFORMÁTICOS\2 TRIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E0E3C-7AD1-4432-AD81-D555225779A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C31C5B4-DE4F-4EA0-8833-688D15CE5D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" xr2:uid="{BC5CBF70-75DA-4C7C-BBD6-19381107FCF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BC5CBF70-75DA-4C7C-BBD6-19381107FCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
   <si>
     <t>/24</t>
   </si>
@@ -231,23 +231,35 @@
     <t>IP EQUIPO</t>
   </si>
   <si>
-    <t>135.215.14.0</t>
-  </si>
-  <si>
-    <t>135.215.</t>
-  </si>
-  <si>
     <t>135.215.8.50</t>
   </si>
   <si>
-    <t>135.215.8.0</t>
+    <t>135.215.8.1</t>
+  </si>
+  <si>
+    <t>135.215.14.1</t>
+  </si>
+  <si>
+    <t>135.215.10.10</t>
+  </si>
+  <si>
+    <t>135.215.10.1</t>
+  </si>
+  <si>
+    <t>135.215.12.12</t>
+  </si>
+  <si>
+    <t>135.215.12.1</t>
+  </si>
+  <si>
+    <t>135.215.14.14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +271,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -484,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,15 +538,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,15 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,64 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -661,120 +763,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2678E093-4CB8-48C1-949C-F6C288EE2268}">
   <dimension ref="B3:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1101,8 +1129,9 @@
     <col min="12" max="12" width="12.81640625" customWidth="1"/>
     <col min="13" max="13" width="10.1796875" customWidth="1"/>
     <col min="14" max="14" width="16.26953125" customWidth="1"/>
-    <col min="18" max="18" width="16.36328125" customWidth="1"/>
+    <col min="18" max="18" width="17.6328125" customWidth="1"/>
     <col min="20" max="20" width="15.26953125" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" customWidth="1"/>
     <col min="22" max="22" width="14.453125" customWidth="1"/>
     <col min="24" max="24" width="13.54296875" customWidth="1"/>
   </cols>
@@ -1169,25 +1198,25 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="57"/>
-      <c r="C5" s="16">
+      <c r="B5" s="85"/>
+      <c r="C5" s="66">
         <v>0</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="66">
         <v>0</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="31" t="s">
         <v>9</v>
       </c>
       <c r="O5" t="s">
@@ -1195,230 +1224,230 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="58"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="15"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="58"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="58"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
       <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="58"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16">
+      <c r="B9" s="86"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="66">
         <v>1</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
       <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="58"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
       <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="58"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="49" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="58"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="58"/>
-      <c r="C13" s="16">
+      <c r="B13" s="86"/>
+      <c r="C13" s="66">
         <v>1</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="95" t="s">
+      <c r="L13" s="47" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="58"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="95"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="58"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="95"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="58"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="95"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="58"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="95"/>
+      <c r="L17" s="47"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="58"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="95"/>
+      <c r="L18" s="47"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="58"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="95"/>
+      <c r="L19" s="47"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="59"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="95"/>
+      <c r="L20" s="47"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="N21" s="3"/>
@@ -1502,8 +1531,8 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -1517,8 +1546,8 @@
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1532,8 +1561,8 @@
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1547,8 +1576,8 @@
       <c r="N27" s="5"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1562,8 +1591,8 @@
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1577,8 +1606,8 @@
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1592,8 +1621,8 @@
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1607,8 +1636,8 @@
       <c r="N31" s="5"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1621,9 +1650,9 @@
       <c r="M32" s="8"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="16"/>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B33" s="67"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1636,9 +1665,9 @@
       <c r="M33" s="8"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1651,9 +1680,9 @@
       <c r="M34" s="8"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1666,9 +1695,9 @@
       <c r="M35" s="8"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1681,9 +1710,9 @@
       <c r="M36" s="8"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1696,9 +1725,9 @@
       <c r="M37" s="8"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1711,9 +1740,9 @@
       <c r="M38" s="8"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1726,9 +1755,9 @@
       <c r="M39" s="8"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1741,7 +1770,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1756,7 +1785,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1771,7 +1800,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
         <v>11</v>
       </c>
@@ -1810,7 +1839,7 @@
       </c>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>27</v>
       </c>
@@ -1848,52 +1877,44 @@
         <v>8</v>
       </c>
       <c r="N44" s="5"/>
-      <c r="Q44" s="13" t="s">
+      <c r="Q44" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="R44" s="14"/>
-      <c r="S44" s="13" t="s">
+      <c r="R44" s="97"/>
+      <c r="T44" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="T44" s="14"/>
-      <c r="U44" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="V44" s="14"/>
-      <c r="W44" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="X44" s="14"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B45" s="16">
+      <c r="U44" s="97"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B45" s="66">
         <v>0</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="34">
         <v>0</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="66">
         <v>0</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="66">
         <v>0</v>
       </c>
-      <c r="F45" s="96">
+      <c r="F45" s="48">
         <v>0</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="21"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="71"/>
       <c r="N45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O45" s="15" t="s">
+      <c r="O45" s="31" t="s">
         <v>1</v>
       </c>
       <c r="P45" s="12"/>
@@ -1901,120 +1922,94 @@
         <v>67</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="S45" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T45" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="T45" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="V45" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W45" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="X45" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="27"/>
+      <c r="U45" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B46" s="67"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="74"/>
       <c r="N46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O46" s="15"/>
+      <c r="O46" s="31"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="11" t="s">
         <v>62</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="S46" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="T46" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V46" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X46" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="96">
+      <c r="U46" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B47" s="67"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="48">
         <v>1</v>
       </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="51"/>
+      <c r="G47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="34"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="15"/>
+      <c r="O47" s="31"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="R47" s="8"/>
-      <c r="S47" s="11" t="s">
+      <c r="R47" s="98">
+        <v>255255255254</v>
+      </c>
+      <c r="T47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="T47" s="8"/>
-      <c r="U47" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="V47" s="8"/>
-      <c r="W47" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X47" s="8"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B48" s="17"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="56"/>
+      <c r="U47" s="98">
+        <v>255255255128</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B48" s="67"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="37"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="15"/>
+      <c r="O48" s="31"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="11" t="s">
         <v>65</v>
@@ -2022,40 +2017,30 @@
       <c r="R48" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S48" s="11" t="s">
+      <c r="T48" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="T48" s="8" t="s">
+      <c r="U48" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="U48" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V48" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="W48" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="X48" s="8" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B49" s="17"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="49" t="s">
+      <c r="B49" s="67"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="100">
+        <v>1</v>
+      </c>
+      <c r="F49" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="51"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="100"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
       <c r="N49" s="5" t="s">
         <v>32</v>
       </c>
@@ -2071,510 +2056,565 @@
       <c r="X49" s="12"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B50" s="17"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="53"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
       <c r="N50" s="5"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
+      <c r="Q50" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="R50" s="97"/>
+      <c r="T50" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="U50" s="97"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="53"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
       <c r="N51" s="5"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
+      <c r="Q51" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U51" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B52" s="17"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="56"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
       <c r="N52" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
+      <c r="Q52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U52" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="16">
+      <c r="B53" s="67"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="66">
         <v>1</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="30"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
       <c r="N53" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O53" s="15" t="s">
+      <c r="O53" s="31" t="s">
         <v>29</v>
       </c>
       <c r="P53" s="12"/>
+      <c r="Q53" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R53" s="98">
+        <v>255255255128</v>
+      </c>
+      <c r="T53" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="U53" s="98">
+        <v>255255255255</v>
+      </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B54" s="17"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="33"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="80"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="15"/>
+      <c r="O54" s="31"/>
       <c r="P54" s="12"/>
+      <c r="Q54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="U54" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B55" s="17"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="33"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="80"/>
       <c r="N55" s="5"/>
-      <c r="O55" s="15"/>
+      <c r="O55" s="31"/>
       <c r="P55" s="12"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B56" s="17"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="33"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="80"/>
       <c r="N56" s="10">
         <v>10255</v>
       </c>
-      <c r="O56" s="15"/>
+      <c r="O56" s="31"/>
       <c r="P56" s="12"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B57" s="17"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="33"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="80"/>
       <c r="N57" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O57" s="15"/>
+      <c r="O57" s="31"/>
       <c r="P57" s="12"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B58" s="17"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="33"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="80"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="15"/>
+      <c r="O58" s="31"/>
       <c r="P58" s="12"/>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B59" s="17"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="33"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="80"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="15"/>
+      <c r="O59" s="31"/>
       <c r="P59" s="12"/>
+      <c r="U59" s="3"/>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B60" s="17"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="36"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="83"/>
       <c r="N60" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O60" s="15"/>
+      <c r="O60" s="31"/>
       <c r="P60" s="12"/>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B61" s="17"/>
-      <c r="C61" s="51">
+      <c r="B61" s="67"/>
+      <c r="C61" s="34">
         <v>1</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="66">
         <v>0</v>
       </c>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="76"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="15"/>
       <c r="N61" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O61" s="15" t="s">
+      <c r="O61" s="31" t="s">
         <v>29</v>
       </c>
       <c r="P61" s="12"/>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B62" s="17"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-      <c r="M62" s="79"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="18"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="15"/>
+      <c r="O62" s="31"/>
       <c r="P62" s="12"/>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B63" s="17"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-      <c r="M63" s="79"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="18"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="15"/>
+      <c r="O63" s="31"/>
       <c r="P63" s="12"/>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B64" s="17"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="78"/>
-      <c r="M64" s="79"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="18"/>
       <c r="N64" s="10">
         <v>12255</v>
       </c>
-      <c r="O64" s="15"/>
+      <c r="O64" s="31"/>
       <c r="P64" s="12"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B65" s="17"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="79"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="18"/>
       <c r="N65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O65" s="15"/>
+      <c r="O65" s="31"/>
       <c r="P65" s="12"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B66" s="17"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="79"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="18"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="15"/>
+      <c r="O66" s="31"/>
       <c r="P66" s="12"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B67" s="17"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="79"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="18"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="15"/>
+      <c r="O67" s="31"/>
       <c r="P67" s="12"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B68" s="17"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="81"/>
-      <c r="M68" s="82"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="21"/>
       <c r="N68" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O68" s="15"/>
+      <c r="O68" s="31"/>
       <c r="P68" s="12"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B69" s="17"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="16">
+      <c r="B69" s="67"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="66">
         <v>1</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="66">
         <v>0</v>
       </c>
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="45"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="24"/>
       <c r="N69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O69" s="15" t="s">
+      <c r="O69" s="31" t="s">
         <v>0</v>
       </c>
       <c r="P69" s="12"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B70" s="17"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="85"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="27"/>
       <c r="N70" s="5"/>
-      <c r="O70" s="15"/>
+      <c r="O70" s="31"/>
       <c r="P70" s="12"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B71" s="17"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="85"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="27"/>
       <c r="N71" s="5"/>
-      <c r="O71" s="15"/>
+      <c r="O71" s="31"/>
       <c r="P71" s="12"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B72" s="17"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="48"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="30"/>
       <c r="N72" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O72" s="15"/>
+      <c r="O72" s="31"/>
       <c r="P72" s="12"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B73" s="17"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="16">
+      <c r="B73" s="67"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="66">
         <v>1</v>
       </c>
-      <c r="F73" s="16">
-        <v>0</v>
-      </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
+      <c r="F73" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="34"/>
       <c r="N73" s="5"/>
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B74" s="17"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+      <c r="K74" s="99"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="65"/>
       <c r="N74" s="5"/>
       <c r="O74" s="12"/>
       <c r="P74" s="12"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B75" s="17"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="16">
-        <v>1</v>
-      </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="65"/>
       <c r="N75" s="5"/>
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B76" s="18"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="37"/>
       <c r="N76" s="5" t="s">
         <v>31</v>
       </c>
@@ -2641,7 +2681,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" s="5">
         <v>11</v>
       </c>
@@ -2680,7 +2720,7 @@
       </c>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B82" s="5" t="s">
         <v>27</v>
       </c>
@@ -2719,309 +2759,310 @@
       </c>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B83" s="16"/>
-      <c r="C83" s="16">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B83" s="66"/>
+      <c r="C83" s="66">
         <v>0</v>
       </c>
-      <c r="D83" s="49" t="s">
+      <c r="D83" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="51"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="34"/>
       <c r="N83" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="53"/>
+      <c r="T83" s="101"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="65"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="53"/>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="65"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="56"/>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="37"/>
       <c r="N86" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="19" t="s">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="21"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="71"/>
       <c r="N87" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O87" s="15" t="s">
+      <c r="O87" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="24"/>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
+      <c r="I88" s="89"/>
+      <c r="J88" s="89"/>
+      <c r="K88" s="89"/>
+      <c r="L88" s="89"/>
+      <c r="M88" s="90"/>
       <c r="N88" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O88" s="15"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="24"/>
+      <c r="O88" s="31"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
+      <c r="G89" s="89"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="89"/>
+      <c r="J89" s="89"/>
+      <c r="K89" s="89"/>
+      <c r="L89" s="89"/>
+      <c r="M89" s="90"/>
       <c r="N89" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O89" s="15"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="27"/>
+      <c r="O89" s="31"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B90" s="67"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
+      <c r="K90" s="73"/>
+      <c r="L90" s="73"/>
+      <c r="M90" s="74"/>
       <c r="N90" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O90" s="15"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B91" s="17"/>
-      <c r="C91" s="16">
+      <c r="O90" s="31"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B91" s="67"/>
+      <c r="C91" s="66">
         <v>1</v>
       </c>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="30"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="76"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="76"/>
+      <c r="K91" s="76"/>
+      <c r="L91" s="76"/>
+      <c r="M91" s="77"/>
       <c r="N91" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O91" s="15" t="s">
+      <c r="O91" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
-      <c r="L92" s="32"/>
-      <c r="M92" s="33"/>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="79"/>
+      <c r="H92" s="79"/>
+      <c r="I92" s="79"/>
+      <c r="J92" s="79"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="79"/>
+      <c r="M92" s="80"/>
       <c r="N92" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O92" s="15"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="33"/>
+      <c r="O92" s="31"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="79"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="79"/>
+      <c r="H93" s="79"/>
+      <c r="I93" s="79"/>
+      <c r="J93" s="79"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="79"/>
+      <c r="M93" s="80"/>
       <c r="N93" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O93" s="15"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="36"/>
+      <c r="O93" s="31"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="82"/>
+      <c r="I94" s="82"/>
+      <c r="J94" s="82"/>
+      <c r="K94" s="82"/>
+      <c r="L94" s="82"/>
+      <c r="M94" s="83"/>
       <c r="N94" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O94" s="15"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="16">
+      <c r="O94" s="31"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="66">
         <v>1</v>
       </c>
-      <c r="E95" s="37" t="s">
+      <c r="E95" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="39"/>
+      <c r="F95" s="91"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="91"/>
+      <c r="I95" s="91"/>
+      <c r="J95" s="91"/>
+      <c r="K95" s="91"/>
+      <c r="L95" s="91"/>
+      <c r="M95" s="92"/>
       <c r="N95" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O95" s="15" t="s">
+      <c r="O95" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="42"/>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B96" s="67"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="94"/>
+      <c r="H96" s="94"/>
+      <c r="I96" s="94"/>
+      <c r="J96" s="94"/>
+      <c r="K96" s="94"/>
+      <c r="L96" s="94"/>
+      <c r="M96" s="95"/>
       <c r="N96" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O96" s="15"/>
+      <c r="O96" s="31"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="43" t="s">
+      <c r="B97" s="67"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="44"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="45"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="24"/>
       <c r="N97" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O97" s="15" t="s">
+      <c r="O97" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="47"/>
-      <c r="M98" s="48"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="30"/>
       <c r="N98" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O98" s="15"/>
+      <c r="O98" s="31"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
@@ -3445,30 +3486,30 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="E61:M68"/>
-    <mergeCell ref="F69:M72"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="E11:J12"/>
-    <mergeCell ref="D13:J20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="E5:J8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="E9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="C61:C76"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="D69:D76"/>
-    <mergeCell ref="G45:M46"/>
-    <mergeCell ref="E53:M60"/>
-    <mergeCell ref="E49:M52"/>
-    <mergeCell ref="G47:M48"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="E73:E76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="F73:M76"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:M52"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="O87:O90"/>
+    <mergeCell ref="O91:O94"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="O53:O60"/>
+    <mergeCell ref="O61:O68"/>
+    <mergeCell ref="O69:O72"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="D87:M90"/>
+    <mergeCell ref="D91:M94"/>
+    <mergeCell ref="E95:M96"/>
+    <mergeCell ref="E97:M98"/>
+    <mergeCell ref="D83:M86"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="C91:C98"/>
     <mergeCell ref="B45:B76"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D9:D12"/>
@@ -3481,28 +3522,29 @@
     <mergeCell ref="C45:C60"/>
     <mergeCell ref="D45:D52"/>
     <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="D87:M90"/>
-    <mergeCell ref="D91:M94"/>
-    <mergeCell ref="E95:M96"/>
-    <mergeCell ref="E97:M98"/>
-    <mergeCell ref="D83:M86"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="O91:O94"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="O53:O60"/>
-    <mergeCell ref="O61:O68"/>
-    <mergeCell ref="O69:O72"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="O87:O90"/>
+    <mergeCell ref="E5:J8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="E9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="C61:C76"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="D69:D76"/>
+    <mergeCell ref="G45:M46"/>
+    <mergeCell ref="E53:M60"/>
+    <mergeCell ref="G47:M48"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="E61:M68"/>
+    <mergeCell ref="F69:M72"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="E11:J12"/>
+    <mergeCell ref="D13:J20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
+++ b/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhona\Desktop\CEU\SIST.INFORMÁTICOS\2 TRIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECH\Desktop\CEU\SIST.INFORMÁTICOS\2 TRIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E0E3C-7AD1-4432-AD81-D555225779A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448DB019-0CD7-44E9-8BB5-E137B3A8EE58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" xr2:uid="{BC5CBF70-75DA-4C7C-BBD6-19381107FCF3}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8175" xr2:uid="{BC5CBF70-75DA-4C7C-BBD6-19381107FCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
   <si>
     <t>/24</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>135.215.8.0</t>
+  </si>
+  <si>
+    <t>200.1.3.255</t>
+  </si>
+  <si>
+    <t>200.1.0.255</t>
+  </si>
+  <si>
+    <t>200.1.0.0</t>
   </si>
 </sst>
 </file>
@@ -264,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,15 +535,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,15 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,64 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -661,118 +763,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -793,9 +851,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -833,7 +891,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -939,7 +997,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1081,7 +1139,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1089,25 +1147,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2678E093-4CB8-48C1-949C-F6C288EE2268}">
-  <dimension ref="B3:X126"/>
+  <dimension ref="B3:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q128" sqref="Q128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" customWidth="1"/>
-    <col min="18" max="18" width="16.36328125" customWidth="1"/>
-    <col min="20" max="20" width="15.26953125" customWidth="1"/>
-    <col min="22" max="22" width="14.453125" customWidth="1"/>
-    <col min="24" max="24" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>8</v>
       </c>
@@ -1136,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,262 +1226,262 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="57"/>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="60" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="86"/>
+      <c r="C5" s="67">
+        <v>0</v>
+      </c>
+      <c r="D5" s="67">
+        <v>0</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="32" t="s">
         <v>9</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="58"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="87"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="58"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="87"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="58"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="87"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
       <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="58"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16">
-        <v>1</v>
-      </c>
-      <c r="E9" s="69" t="s">
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="87"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="67">
+        <v>1</v>
+      </c>
+      <c r="E9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
       <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="58"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="87"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="58"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="49" t="s">
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="87"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="58"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="87"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="58"/>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="86" t="s">
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="87"/>
+      <c r="C13" s="67">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="95" t="s">
+      <c r="L13" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="58"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="87"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="95"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="58"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="87"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="95"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="58"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
+      <c r="L15" s="48"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="87"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="95"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="58"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="91"/>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="87"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="95"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="58"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
+      <c r="L17" s="48"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="87"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="95"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="58"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
+      <c r="L18" s="48"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="87"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="95"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="59"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
+      <c r="L19" s="48"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="88"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="95"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="L20" s="48"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N21" s="3"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>11</v>
       </c>
@@ -1462,7 +1520,7 @@
       </c>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
@@ -1501,9 +1559,9 @@
       </c>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -1516,9 +1574,9 @@
       <c r="M25" s="8"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1531,9 +1589,9 @@
       <c r="M26" s="8"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1546,9 +1604,9 @@
       <c r="M27" s="8"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1561,9 +1619,9 @@
       <c r="M28" s="8"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1576,9 +1634,9 @@
       <c r="M29" s="8"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1591,9 +1649,9 @@
       <c r="M30" s="8"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1606,9 +1664,9 @@
       <c r="M31" s="8"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1621,9 +1679,9 @@
       <c r="M32" s="8"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="16"/>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B33" s="68"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1636,9 +1694,9 @@
       <c r="M33" s="8"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1651,9 +1709,9 @@
       <c r="M34" s="8"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1666,9 +1724,9 @@
       <c r="M35" s="8"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1681,9 +1739,9 @@
       <c r="M36" s="8"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1696,9 +1754,9 @@
       <c r="M37" s="8"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1711,9 +1769,9 @@
       <c r="M38" s="8"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1726,9 +1784,9 @@
       <c r="M39" s="8"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1741,7 +1799,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1756,7 +1814,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1771,7 +1829,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <v>11</v>
       </c>
@@ -1810,7 +1868,7 @@
       </c>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>27</v>
       </c>
@@ -1848,52 +1906,52 @@
         <v>8</v>
       </c>
       <c r="N44" s="5"/>
-      <c r="Q44" s="13" t="s">
+      <c r="Q44" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="R44" s="14"/>
-      <c r="S44" s="13" t="s">
+      <c r="R44" s="98"/>
+      <c r="S44" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="T44" s="14"/>
-      <c r="U44" s="13" t="s">
+      <c r="T44" s="98"/>
+      <c r="U44" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="V44" s="14"/>
-      <c r="W44" s="13" t="s">
+      <c r="V44" s="98"/>
+      <c r="W44" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="X44" s="14"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B45" s="16">
-        <v>0</v>
-      </c>
-      <c r="C45" s="51">
-        <v>0</v>
-      </c>
-      <c r="D45" s="16">
-        <v>0</v>
-      </c>
-      <c r="E45" s="16">
-        <v>0</v>
-      </c>
-      <c r="F45" s="96">
-        <v>0</v>
-      </c>
-      <c r="G45" s="19" t="s">
+      <c r="X44" s="98"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45" s="67">
+        <v>0</v>
+      </c>
+      <c r="C45" s="35">
+        <v>0</v>
+      </c>
+      <c r="D45" s="67">
+        <v>0</v>
+      </c>
+      <c r="E45" s="67">
+        <v>0</v>
+      </c>
+      <c r="F45" s="49">
+        <v>0</v>
+      </c>
+      <c r="G45" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="21"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="72"/>
       <c r="N45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O45" s="15" t="s">
+      <c r="O45" s="32" t="s">
         <v>1</v>
       </c>
       <c r="P45" s="12"/>
@@ -1922,23 +1980,23 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="27"/>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B46" s="68"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="75"/>
       <c r="N46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O46" s="15"/>
+      <c r="O46" s="32"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="11" t="s">
         <v>62</v>
@@ -1965,23 +2023,23 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="96">
-        <v>1</v>
-      </c>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="51"/>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B47" s="68"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="49">
+        <v>1</v>
+      </c>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="35"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="15"/>
+      <c r="O47" s="32"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="11" t="s">
         <v>64</v>
@@ -2000,21 +2058,21 @@
       </c>
       <c r="X47" s="8"/>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B48" s="17"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="56"/>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" s="68"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="38"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="15"/>
+      <c r="O48" s="32"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="11" t="s">
         <v>65</v>
@@ -2041,21 +2099,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B49" s="17"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="49" t="s">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B49" s="68"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="51"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="35"/>
       <c r="N49" s="5" t="s">
         <v>32</v>
       </c>
@@ -2070,449 +2128,449 @@
       <c r="W49" s="12"/>
       <c r="X49" s="12"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B50" s="17"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="53"/>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B50" s="68"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="66"/>
       <c r="N50" s="5"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="53"/>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51" s="68"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="66"/>
       <c r="N51" s="5"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B52" s="17"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="56"/>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B52" s="68"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="38"/>
       <c r="N52" s="5" t="s">
         <v>36</v>
       </c>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="16">
-        <v>1</v>
-      </c>
-      <c r="E53" s="28" t="s">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B53" s="68"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67">
+        <v>1</v>
+      </c>
+      <c r="E53" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="30"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="78"/>
       <c r="N53" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O53" s="15" t="s">
+      <c r="O53" s="32" t="s">
         <v>29</v>
       </c>
       <c r="P53" s="12"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B54" s="17"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="33"/>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B54" s="68"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="81"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="15"/>
+      <c r="O54" s="32"/>
       <c r="P54" s="12"/>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B55" s="17"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="33"/>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B55" s="68"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="81"/>
       <c r="N55" s="5"/>
-      <c r="O55" s="15"/>
+      <c r="O55" s="32"/>
       <c r="P55" s="12"/>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B56" s="17"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="33"/>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B56" s="68"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="81"/>
       <c r="N56" s="10">
         <v>10255</v>
       </c>
-      <c r="O56" s="15"/>
+      <c r="O56" s="32"/>
       <c r="P56" s="12"/>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B57" s="17"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="33"/>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57" s="68"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="81"/>
       <c r="N57" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O57" s="15"/>
+      <c r="O57" s="32"/>
       <c r="P57" s="12"/>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B58" s="17"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="33"/>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B58" s="68"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="81"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="15"/>
+      <c r="O58" s="32"/>
       <c r="P58" s="12"/>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B59" s="17"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="33"/>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B59" s="68"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="81"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="15"/>
+      <c r="O59" s="32"/>
       <c r="P59" s="12"/>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B60" s="17"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="36"/>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B60" s="68"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="84"/>
       <c r="N60" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O60" s="15"/>
+      <c r="O60" s="32"/>
       <c r="P60" s="12"/>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B61" s="17"/>
-      <c r="C61" s="51">
-        <v>1</v>
-      </c>
-      <c r="D61" s="16">
-        <v>0</v>
-      </c>
-      <c r="E61" s="37" t="s">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B61" s="68"/>
+      <c r="C61" s="35">
+        <v>1</v>
+      </c>
+      <c r="D61" s="67">
+        <v>0</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="76"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="16"/>
       <c r="N61" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O61" s="15" t="s">
+      <c r="O61" s="32" t="s">
         <v>29</v>
       </c>
       <c r="P61" s="12"/>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B62" s="17"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-      <c r="M62" s="79"/>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B62" s="68"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="19"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="15"/>
+      <c r="O62" s="32"/>
       <c r="P62" s="12"/>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B63" s="17"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-      <c r="M63" s="79"/>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B63" s="68"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="19"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="15"/>
+      <c r="O63" s="32"/>
       <c r="P63" s="12"/>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B64" s="17"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="78"/>
-      <c r="M64" s="79"/>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B64" s="68"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="19"/>
       <c r="N64" s="10">
         <v>12255</v>
       </c>
-      <c r="O64" s="15"/>
+      <c r="O64" s="32"/>
       <c r="P64" s="12"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B65" s="17"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="79"/>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="68"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="19"/>
       <c r="N65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O65" s="15"/>
+      <c r="O65" s="32"/>
       <c r="P65" s="12"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B66" s="17"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="79"/>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="68"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="19"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="15"/>
+      <c r="O66" s="32"/>
       <c r="P66" s="12"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B67" s="17"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="79"/>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="68"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="19"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="15"/>
+      <c r="O67" s="32"/>
       <c r="P67" s="12"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B68" s="17"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="81"/>
-      <c r="M68" s="82"/>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="68"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="22"/>
       <c r="N68" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O68" s="15"/>
+      <c r="O68" s="32"/>
       <c r="P68" s="12"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B69" s="17"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="16">
-        <v>1</v>
-      </c>
-      <c r="E69" s="16">
-        <v>0</v>
-      </c>
-      <c r="F69" s="43" t="s">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="68"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67">
+        <v>1</v>
+      </c>
+      <c r="E69" s="67">
+        <v>0</v>
+      </c>
+      <c r="F69" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="45"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="25"/>
       <c r="N69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O69" s="15" t="s">
+      <c r="O69" s="32" t="s">
         <v>0</v>
       </c>
       <c r="P69" s="12"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B70" s="17"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="85"/>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="68"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="28"/>
       <c r="N70" s="5"/>
-      <c r="O70" s="15"/>
+      <c r="O70" s="32"/>
       <c r="P70" s="12"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B71" s="17"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="85"/>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="68"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="28"/>
       <c r="N71" s="5"/>
-      <c r="O71" s="15"/>
+      <c r="O71" s="32"/>
       <c r="P71" s="12"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B72" s="17"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="48"/>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="68"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="31"/>
       <c r="N72" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O72" s="15"/>
+      <c r="O72" s="32"/>
       <c r="P72" s="12"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B73" s="17"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="16">
-        <v>1</v>
-      </c>
-      <c r="F73" s="16">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="68"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="67">
+        <v>1</v>
+      </c>
+      <c r="F73" s="67">
         <v>0</v>
       </c>
       <c r="G73" s="8"/>
@@ -2526,12 +2584,12 @@
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B74" s="17"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="18"/>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="68"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="69"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -2543,12 +2601,12 @@
       <c r="O74" s="12"/>
       <c r="P74" s="12"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B75" s="17"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="16">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="68"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="67">
         <v>1</v>
       </c>
       <c r="G75" s="8"/>
@@ -2562,12 +2620,12 @@
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B76" s="18"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="69"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -2581,7 +2639,7 @@
       <c r="O76" s="12"/>
       <c r="P76" s="12"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2596,7 +2654,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2611,7 +2669,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2626,7 +2684,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2641,7 +2699,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="5">
         <v>11</v>
       </c>
@@ -2680,7 +2738,7 @@
       </c>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>27</v>
       </c>
@@ -2719,311 +2777,311 @@
       </c>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B83" s="16"/>
-      <c r="C83" s="16">
-        <v>0</v>
-      </c>
-      <c r="D83" s="49" t="s">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="67"/>
+      <c r="C83" s="67">
+        <v>0</v>
+      </c>
+      <c r="D83" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="51"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="35"/>
       <c r="N83" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="53"/>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="68"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="66"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="53"/>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="66"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="56"/>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="68"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="38"/>
       <c r="N86" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="19" t="s">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="21"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="71"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="71"/>
+      <c r="L87" s="71"/>
+      <c r="M87" s="72"/>
       <c r="N87" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O87" s="15" t="s">
+      <c r="O87" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="24"/>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="90"/>
+      <c r="G88" s="90"/>
+      <c r="H88" s="90"/>
+      <c r="I88" s="90"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="90"/>
+      <c r="L88" s="90"/>
+      <c r="M88" s="91"/>
       <c r="N88" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O88" s="15"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="24"/>
+      <c r="O88" s="32"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="90"/>
+      <c r="F89" s="90"/>
+      <c r="G89" s="90"/>
+      <c r="H89" s="90"/>
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="K89" s="90"/>
+      <c r="L89" s="90"/>
+      <c r="M89" s="91"/>
       <c r="N89" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O89" s="15"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="27"/>
+      <c r="O89" s="32"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="68"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="75"/>
       <c r="N90" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O90" s="15"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B91" s="17"/>
-      <c r="C91" s="16">
-        <v>1</v>
-      </c>
-      <c r="D91" s="28" t="s">
+      <c r="O90" s="32"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="68"/>
+      <c r="C91" s="67">
+        <v>1</v>
+      </c>
+      <c r="D91" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="30"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
+      <c r="L91" s="77"/>
+      <c r="M91" s="78"/>
       <c r="N91" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O91" s="15" t="s">
+      <c r="O91" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
-      <c r="L92" s="32"/>
-      <c r="M92" s="33"/>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="68"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="80"/>
+      <c r="H92" s="80"/>
+      <c r="I92" s="80"/>
+      <c r="J92" s="80"/>
+      <c r="K92" s="80"/>
+      <c r="L92" s="80"/>
+      <c r="M92" s="81"/>
       <c r="N92" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O92" s="15"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="33"/>
+      <c r="O92" s="32"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
+      <c r="H93" s="80"/>
+      <c r="I93" s="80"/>
+      <c r="J93" s="80"/>
+      <c r="K93" s="80"/>
+      <c r="L93" s="80"/>
+      <c r="M93" s="81"/>
       <c r="N93" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O93" s="15"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="36"/>
+      <c r="O93" s="32"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="68"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
+      <c r="I94" s="83"/>
+      <c r="J94" s="83"/>
+      <c r="K94" s="83"/>
+      <c r="L94" s="83"/>
+      <c r="M94" s="84"/>
       <c r="N94" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O94" s="15"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="16">
-        <v>1</v>
-      </c>
-      <c r="E95" s="37" t="s">
+      <c r="O94" s="32"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="68"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="67">
+        <v>1</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="39"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="92"/>
+      <c r="J95" s="92"/>
+      <c r="K95" s="92"/>
+      <c r="L95" s="92"/>
+      <c r="M95" s="93"/>
       <c r="N95" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O95" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="42"/>
+      <c r="O95" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="68"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="94"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="95"/>
+      <c r="H96" s="95"/>
+      <c r="I96" s="95"/>
+      <c r="J96" s="95"/>
+      <c r="K96" s="95"/>
+      <c r="L96" s="95"/>
+      <c r="M96" s="96"/>
       <c r="N96" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O96" s="15"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="43" t="s">
+      <c r="O96" s="32"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="44"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="45"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="25"/>
       <c r="N97" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O97" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="47"/>
-      <c r="M98" s="48"/>
+      <c r="O97" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
+      <c r="M98" s="31"/>
       <c r="N98" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O98" s="15"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O98" s="32"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3038,7 +3096,7 @@
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3053,7 +3111,7 @@
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3068,391 +3126,1382 @@
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13">
+        <v>10</v>
+      </c>
+      <c r="D102" s="13">
+        <v>9</v>
+      </c>
+      <c r="E102" s="13">
+        <v>8</v>
+      </c>
+      <c r="F102" s="13">
+        <v>7</v>
+      </c>
+      <c r="G102" s="13">
+        <v>6</v>
+      </c>
+      <c r="H102" s="13">
+        <v>5</v>
+      </c>
+      <c r="I102" s="13">
+        <v>4</v>
+      </c>
+      <c r="J102" s="13">
+        <v>3</v>
+      </c>
+      <c r="K102" s="13">
+        <v>2</v>
+      </c>
+      <c r="L102" s="13">
+        <v>1</v>
+      </c>
+      <c r="M102" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="13"/>
+      <c r="C103" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K103" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L103" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M103" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="67"/>
+      <c r="D104" s="67">
+        <v>0</v>
+      </c>
+      <c r="E104" s="67">
+        <v>0</v>
+      </c>
+      <c r="F104" s="112">
+        <v>0</v>
+      </c>
+      <c r="G104" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="H104" s="110"/>
+      <c r="I104" s="110"/>
+      <c r="J104" s="110"/>
+      <c r="K104" s="110"/>
+      <c r="L104" s="110"/>
+      <c r="M104" s="109"/>
+      <c r="N104" s="108" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="107"/>
+      <c r="G105" s="106"/>
+      <c r="H105" s="105"/>
+      <c r="I105" s="105"/>
+      <c r="J105" s="105"/>
+      <c r="K105" s="105"/>
+      <c r="L105" s="105"/>
+      <c r="M105" s="104"/>
+      <c r="N105" s="108"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" s="68"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="68"/>
+      <c r="F106" s="107"/>
+      <c r="G106" s="106"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="105"/>
+      <c r="K106" s="105"/>
+      <c r="L106" s="105"/>
+      <c r="M106" s="104"/>
+      <c r="N106" s="108"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="68"/>
+      <c r="F107" s="107"/>
+      <c r="G107" s="106"/>
+      <c r="H107" s="105"/>
+      <c r="I107" s="105"/>
+      <c r="J107" s="105"/>
+      <c r="K107" s="105"/>
+      <c r="L107" s="105"/>
+      <c r="M107" s="104"/>
+      <c r="N107" s="108"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="107"/>
+      <c r="G108" s="106"/>
+      <c r="H108" s="105"/>
+      <c r="I108" s="105"/>
+      <c r="J108" s="105"/>
+      <c r="K108" s="105"/>
+      <c r="L108" s="105"/>
+      <c r="M108" s="104"/>
+      <c r="N108" s="13"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="C109" s="68"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="107"/>
+      <c r="G109" s="106"/>
+      <c r="H109" s="105"/>
+      <c r="I109" s="105"/>
+      <c r="J109" s="105"/>
+      <c r="K109" s="105"/>
+      <c r="L109" s="105"/>
+      <c r="M109" s="104"/>
+      <c r="N109" s="13"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110" s="68"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="68"/>
+      <c r="F110" s="107"/>
+      <c r="G110" s="106"/>
+      <c r="H110" s="105"/>
+      <c r="I110" s="105"/>
+      <c r="J110" s="105"/>
+      <c r="K110" s="105"/>
+      <c r="L110" s="105"/>
+      <c r="M110" s="104"/>
+      <c r="N110" s="13"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="102"/>
+      <c r="H111" s="101"/>
+      <c r="I111" s="101"/>
+      <c r="J111" s="101"/>
+      <c r="K111" s="101"/>
+      <c r="L111" s="101"/>
+      <c r="M111" s="100"/>
+      <c r="N111" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112" s="68"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="67">
+        <v>1</v>
+      </c>
+      <c r="G112" s="67">
+        <v>0</v>
+      </c>
+      <c r="H112" s="67">
+        <v>0</v>
+      </c>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="13"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>11</v>
+      </c>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+      <c r="H114" s="67">
+        <v>1</v>
+      </c>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="13"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115" s="68"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="13"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>13</v>
+      </c>
+      <c r="C116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="67">
+        <v>1</v>
+      </c>
+      <c r="H116" s="67">
+        <v>0</v>
+      </c>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="13"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>14</v>
+      </c>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="13"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>15</v>
+      </c>
+      <c r="C118" s="68"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="68"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="68"/>
+      <c r="H118" s="67">
+        <v>1</v>
+      </c>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="13"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>16</v>
+      </c>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="13"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>17</v>
+      </c>
+      <c r="C120" s="68"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="67">
+        <v>1</v>
+      </c>
+      <c r="F120" s="67">
+        <v>0</v>
+      </c>
+      <c r="G120" s="67">
+        <v>0</v>
+      </c>
+      <c r="H120" s="67">
+        <v>0</v>
+      </c>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="13"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>18</v>
+      </c>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
+      <c r="H121" s="69"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="13"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>19</v>
+      </c>
+      <c r="C122" s="68"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="68"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="67">
+        <v>1</v>
+      </c>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="13"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>20</v>
+      </c>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="69"/>
+      <c r="H123" s="69"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="13"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>21</v>
+      </c>
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="67">
+        <v>1</v>
+      </c>
+      <c r="H124" s="67">
+        <v>0</v>
+      </c>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="13"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>22</v>
+      </c>
+      <c r="C125" s="68"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="68"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="69"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="13"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>23</v>
+      </c>
+      <c r="C126" s="68"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="68"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="67">
+        <v>1</v>
+      </c>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="13"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>24</v>
+      </c>
+      <c r="C127" s="68"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="69"/>
+      <c r="G127" s="69"/>
+      <c r="H127" s="69"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="13"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>25</v>
+      </c>
+      <c r="C128" s="68"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="67">
+        <v>1</v>
+      </c>
+      <c r="G128" s="67">
+        <v>0</v>
+      </c>
+      <c r="H128" s="67">
+        <v>0</v>
+      </c>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="13"/>
+      <c r="Q128" s="3"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>26</v>
+      </c>
+      <c r="C129" s="68"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="68"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="69"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="13"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>27</v>
+      </c>
+      <c r="C130" s="68"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="68"/>
+      <c r="H130" s="67">
+        <v>1</v>
+      </c>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="13"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>28</v>
+      </c>
+      <c r="C131" s="68"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="69"/>
+      <c r="H131" s="69"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="13"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>29</v>
+      </c>
+      <c r="C132" s="68"/>
+      <c r="D132" s="68"/>
+      <c r="E132" s="68"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="67">
+        <v>1</v>
+      </c>
+      <c r="H132" s="67">
+        <v>0</v>
+      </c>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="13"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>30</v>
+      </c>
+      <c r="C133" s="68"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="69"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="13"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>31</v>
+      </c>
+      <c r="C134" s="68"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
+      <c r="H134" s="67">
+        <v>1</v>
+      </c>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="13"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>32</v>
+      </c>
+      <c r="C135" s="68"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="69"/>
+      <c r="F135" s="69"/>
+      <c r="G135" s="69"/>
+      <c r="H135" s="69"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="13"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>33</v>
+      </c>
+      <c r="C136" s="68"/>
+      <c r="D136" s="67">
+        <v>1</v>
+      </c>
+      <c r="E136" s="67">
+        <v>0</v>
+      </c>
+      <c r="F136" s="67">
+        <v>0</v>
+      </c>
+      <c r="G136" s="67">
+        <v>0</v>
+      </c>
+      <c r="H136" s="67">
+        <v>0</v>
+      </c>
+      <c r="I136" s="99"/>
+      <c r="J136" s="99"/>
+      <c r="K136" s="99"/>
+      <c r="L136" s="99"/>
+      <c r="M136" s="99"/>
+      <c r="N136" s="13"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>34</v>
+      </c>
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="69"/>
+      <c r="I137" s="99"/>
+      <c r="J137" s="99"/>
+      <c r="K137" s="99"/>
+      <c r="L137" s="99"/>
+      <c r="M137" s="99"/>
+      <c r="N137" s="13"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>35</v>
+      </c>
+      <c r="C138" s="68"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="68"/>
+      <c r="F138" s="68"/>
+      <c r="G138" s="68"/>
+      <c r="H138" s="67">
+        <v>1</v>
+      </c>
+      <c r="I138" s="99"/>
+      <c r="J138" s="99"/>
+      <c r="K138" s="99"/>
+      <c r="L138" s="99"/>
+      <c r="M138" s="99"/>
+      <c r="N138" s="13"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>36</v>
+      </c>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="68"/>
+      <c r="F139" s="68"/>
+      <c r="G139" s="69"/>
+      <c r="H139" s="69"/>
+      <c r="I139" s="99"/>
+      <c r="J139" s="99"/>
+      <c r="K139" s="99"/>
+      <c r="L139" s="99"/>
+      <c r="M139" s="99"/>
+      <c r="N139" s="13"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>37</v>
+      </c>
+      <c r="C140" s="68"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="67">
+        <v>1</v>
+      </c>
+      <c r="H140" s="67">
+        <v>0</v>
+      </c>
+      <c r="I140" s="99"/>
+      <c r="J140" s="99"/>
+      <c r="K140" s="99"/>
+      <c r="L140" s="99"/>
+      <c r="M140" s="99"/>
+      <c r="N140" s="13"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>38</v>
+      </c>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
+      <c r="H141" s="69"/>
+      <c r="I141" s="99"/>
+      <c r="J141" s="99"/>
+      <c r="K141" s="99"/>
+      <c r="L141" s="99"/>
+      <c r="M141" s="99"/>
+      <c r="N141" s="13"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>39</v>
+      </c>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="68"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="68"/>
+      <c r="H142" s="67">
+        <v>1</v>
+      </c>
+      <c r="I142" s="99"/>
+      <c r="J142" s="99"/>
+      <c r="K142" s="99"/>
+      <c r="L142" s="99"/>
+      <c r="M142" s="99"/>
+      <c r="N142" s="13"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>40</v>
+      </c>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="69"/>
+      <c r="G143" s="69"/>
+      <c r="H143" s="69"/>
+      <c r="I143" s="99"/>
+      <c r="J143" s="99"/>
+      <c r="K143" s="99"/>
+      <c r="L143" s="99"/>
+      <c r="M143" s="99"/>
+      <c r="N143" s="13"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>41</v>
+      </c>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="68"/>
+      <c r="F144" s="67">
+        <v>1</v>
+      </c>
+      <c r="G144" s="67">
+        <v>0</v>
+      </c>
+      <c r="H144" s="67">
+        <v>0</v>
+      </c>
+      <c r="I144" s="99"/>
+      <c r="J144" s="99"/>
+      <c r="K144" s="99"/>
+      <c r="L144" s="99"/>
+      <c r="M144" s="99"/>
+      <c r="N144" s="13"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>42</v>
+      </c>
+      <c r="C145" s="68"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="68"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="69"/>
+      <c r="I145" s="99"/>
+      <c r="J145" s="99"/>
+      <c r="K145" s="99"/>
+      <c r="L145" s="99"/>
+      <c r="M145" s="99"/>
+      <c r="N145" s="13"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>43</v>
+      </c>
+      <c r="C146" s="68"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="68"/>
+      <c r="F146" s="68"/>
+      <c r="G146" s="68"/>
+      <c r="H146" s="67">
+        <v>1</v>
+      </c>
+      <c r="I146" s="99"/>
+      <c r="J146" s="99"/>
+      <c r="K146" s="99"/>
+      <c r="L146" s="99"/>
+      <c r="M146" s="99"/>
+      <c r="N146" s="13"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>44</v>
+      </c>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="68"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="69"/>
+      <c r="H147" s="69"/>
+      <c r="I147" s="99"/>
+      <c r="J147" s="99"/>
+      <c r="K147" s="99"/>
+      <c r="L147" s="99"/>
+      <c r="M147" s="99"/>
+      <c r="N147" s="13"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>45</v>
+      </c>
+      <c r="C148" s="68"/>
+      <c r="D148" s="68"/>
+      <c r="E148" s="68"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="67">
+        <v>1</v>
+      </c>
+      <c r="H148" s="67">
+        <v>0</v>
+      </c>
+      <c r="I148" s="99"/>
+      <c r="J148" s="99"/>
+      <c r="K148" s="99"/>
+      <c r="L148" s="99"/>
+      <c r="M148" s="99"/>
+      <c r="N148" s="13"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>46</v>
+      </c>
+      <c r="C149" s="68"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="68"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="68"/>
+      <c r="H149" s="69"/>
+      <c r="I149" s="99"/>
+      <c r="J149" s="99"/>
+      <c r="K149" s="99"/>
+      <c r="L149" s="99"/>
+      <c r="M149" s="99"/>
+      <c r="N149" s="13"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>47</v>
+      </c>
+      <c r="C150" s="68"/>
+      <c r="D150" s="68"/>
+      <c r="E150" s="68"/>
+      <c r="F150" s="68"/>
+      <c r="G150" s="68"/>
+      <c r="H150" s="67">
+        <v>1</v>
+      </c>
+      <c r="I150" s="99"/>
+      <c r="J150" s="99"/>
+      <c r="K150" s="99"/>
+      <c r="L150" s="99"/>
+      <c r="M150" s="99"/>
+      <c r="N150" s="13"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>48</v>
+      </c>
+      <c r="C151" s="68"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="69"/>
+      <c r="F151" s="69"/>
+      <c r="G151" s="69"/>
+      <c r="H151" s="69"/>
+      <c r="I151" s="99"/>
+      <c r="J151" s="99"/>
+      <c r="K151" s="99"/>
+      <c r="L151" s="99"/>
+      <c r="M151" s="99"/>
+      <c r="N151" s="13"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>49</v>
+      </c>
+      <c r="C152" s="68"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="67">
+        <v>1</v>
+      </c>
+      <c r="F152" s="67">
+        <v>0</v>
+      </c>
+      <c r="G152" s="67">
+        <v>0</v>
+      </c>
+      <c r="H152" s="67">
+        <v>0</v>
+      </c>
+      <c r="I152" s="99"/>
+      <c r="J152" s="99"/>
+      <c r="K152" s="99"/>
+      <c r="L152" s="99"/>
+      <c r="M152" s="99"/>
+      <c r="N152" s="13"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>50</v>
+      </c>
+      <c r="C153" s="68"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="69"/>
+      <c r="I153" s="99"/>
+      <c r="J153" s="99"/>
+      <c r="K153" s="99"/>
+      <c r="L153" s="99"/>
+      <c r="M153" s="99"/>
+      <c r="N153" s="13"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>51</v>
+      </c>
+      <c r="C154" s="68"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="68"/>
+      <c r="F154" s="68"/>
+      <c r="G154" s="68"/>
+      <c r="H154" s="67">
+        <v>1</v>
+      </c>
+      <c r="I154" s="99"/>
+      <c r="J154" s="99"/>
+      <c r="K154" s="99"/>
+      <c r="L154" s="99"/>
+      <c r="M154" s="99"/>
+      <c r="N154" s="13"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>52</v>
+      </c>
+      <c r="C155" s="68"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="68"/>
+      <c r="F155" s="68"/>
+      <c r="G155" s="69"/>
+      <c r="H155" s="69"/>
+      <c r="I155" s="99"/>
+      <c r="J155" s="99"/>
+      <c r="K155" s="99"/>
+      <c r="L155" s="99"/>
+      <c r="M155" s="99"/>
+      <c r="N155" s="13"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>53</v>
+      </c>
+      <c r="C156" s="68"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="68"/>
+      <c r="F156" s="68"/>
+      <c r="G156" s="67">
+        <v>1</v>
+      </c>
+      <c r="H156" s="67">
+        <v>0</v>
+      </c>
+      <c r="I156" s="99"/>
+      <c r="J156" s="99"/>
+      <c r="K156" s="99"/>
+      <c r="L156" s="99"/>
+      <c r="M156" s="99"/>
+      <c r="N156" s="13"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>54</v>
+      </c>
+      <c r="C157" s="68"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="69"/>
+      <c r="I157" s="99"/>
+      <c r="J157" s="99"/>
+      <c r="K157" s="99"/>
+      <c r="L157" s="99"/>
+      <c r="M157" s="99"/>
+      <c r="N157" s="13"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>55</v>
+      </c>
+      <c r="C158" s="68"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="68"/>
+      <c r="F158" s="68"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="67">
+        <v>1</v>
+      </c>
+      <c r="I158" s="99"/>
+      <c r="J158" s="99"/>
+      <c r="K158" s="99"/>
+      <c r="L158" s="99"/>
+      <c r="M158" s="99"/>
+      <c r="N158" s="13"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>56</v>
+      </c>
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="69"/>
+      <c r="G159" s="69"/>
+      <c r="H159" s="69"/>
+      <c r="I159" s="99"/>
+      <c r="J159" s="99"/>
+      <c r="K159" s="99"/>
+      <c r="L159" s="99"/>
+      <c r="M159" s="99"/>
+      <c r="N159" s="13"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>57</v>
+      </c>
+      <c r="C160" s="68"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="67">
+        <v>1</v>
+      </c>
+      <c r="G160" s="67">
+        <v>0</v>
+      </c>
+      <c r="H160" s="67">
+        <v>0</v>
+      </c>
+      <c r="I160" s="99"/>
+      <c r="J160" s="99"/>
+      <c r="K160" s="99"/>
+      <c r="L160" s="99"/>
+      <c r="M160" s="99"/>
+      <c r="N160" s="13"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>58</v>
+      </c>
+      <c r="C161" s="68"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="68"/>
+      <c r="F161" s="68"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="69"/>
+      <c r="I161" s="99"/>
+      <c r="J161" s="99"/>
+      <c r="K161" s="99"/>
+      <c r="L161" s="99"/>
+      <c r="M161" s="99"/>
+      <c r="N161" s="13"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>59</v>
+      </c>
+      <c r="C162" s="68"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="68"/>
+      <c r="F162" s="68"/>
+      <c r="G162" s="68"/>
+      <c r="H162" s="67">
+        <v>1</v>
+      </c>
+      <c r="I162" s="99"/>
+      <c r="J162" s="99"/>
+      <c r="K162" s="99"/>
+      <c r="L162" s="99"/>
+      <c r="M162" s="99"/>
+      <c r="N162" s="13"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>60</v>
+      </c>
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="68"/>
+      <c r="F163" s="68"/>
+      <c r="G163" s="69"/>
+      <c r="H163" s="69"/>
+      <c r="I163" s="99"/>
+      <c r="J163" s="99"/>
+      <c r="K163" s="99"/>
+      <c r="L163" s="99"/>
+      <c r="M163" s="99"/>
+      <c r="N163" s="13"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>61</v>
+      </c>
+      <c r="C164" s="68"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="68"/>
+      <c r="F164" s="68"/>
+      <c r="G164" s="67">
+        <v>1</v>
+      </c>
+      <c r="H164" s="67">
+        <v>0</v>
+      </c>
+      <c r="I164" s="99"/>
+      <c r="J164" s="99"/>
+      <c r="K164" s="99"/>
+      <c r="L164" s="99"/>
+      <c r="M164" s="99"/>
+      <c r="N164" s="13"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>62</v>
+      </c>
+      <c r="C165" s="68"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="69"/>
+      <c r="I165" s="99"/>
+      <c r="J165" s="99"/>
+      <c r="K165" s="99"/>
+      <c r="L165" s="99"/>
+      <c r="M165" s="99"/>
+      <c r="N165" s="13"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>63</v>
+      </c>
+      <c r="C166" s="68"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="68"/>
+      <c r="F166" s="68"/>
+      <c r="G166" s="68"/>
+      <c r="H166" s="67">
+        <v>1</v>
+      </c>
+      <c r="I166" s="99"/>
+      <c r="J166" s="99"/>
+      <c r="K166" s="99"/>
+      <c r="L166" s="99"/>
+      <c r="M166" s="99"/>
+      <c r="N166" s="13"/>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>64</v>
+      </c>
+      <c r="C167" s="69"/>
+      <c r="D167" s="69"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="69"/>
+      <c r="G167" s="69"/>
+      <c r="H167" s="69"/>
+      <c r="I167" s="99"/>
+      <c r="J167" s="99"/>
+      <c r="K167" s="99"/>
+      <c r="L167" s="99"/>
+      <c r="M167" s="99"/>
+      <c r="N167" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="E61:M68"/>
-    <mergeCell ref="F69:M72"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="E11:J12"/>
-    <mergeCell ref="D13:J20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
+  <mergeCells count="115">
+    <mergeCell ref="C104:C167"/>
+    <mergeCell ref="D104:D135"/>
+    <mergeCell ref="D136:D167"/>
+    <mergeCell ref="E104:E119"/>
+    <mergeCell ref="E120:E135"/>
+    <mergeCell ref="E136:E151"/>
+    <mergeCell ref="E152:E167"/>
+    <mergeCell ref="F104:F111"/>
+    <mergeCell ref="F112:F119"/>
+    <mergeCell ref="F120:F127"/>
+    <mergeCell ref="F128:F135"/>
+    <mergeCell ref="F136:F143"/>
+    <mergeCell ref="F144:F151"/>
+    <mergeCell ref="F152:F159"/>
+    <mergeCell ref="F160:F167"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G124:G127"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="G116:G119"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="G152:G155"/>
+    <mergeCell ref="G156:G159"/>
+    <mergeCell ref="G160:G163"/>
+    <mergeCell ref="G164:G167"/>
+    <mergeCell ref="G140:G143"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="G104:M111"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="H154:H155"/>
+    <mergeCell ref="H156:H157"/>
+    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="O87:O90"/>
+    <mergeCell ref="O91:O94"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="O53:O60"/>
+    <mergeCell ref="O61:O68"/>
+    <mergeCell ref="O69:O72"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="D87:M90"/>
+    <mergeCell ref="D91:M94"/>
+    <mergeCell ref="E95:M96"/>
+    <mergeCell ref="E97:M98"/>
+    <mergeCell ref="D83:M86"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="B45:B76"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="B5:B20"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="C45:C60"/>
+    <mergeCell ref="D45:D52"/>
+    <mergeCell ref="D53:D60"/>
     <mergeCell ref="E5:J8"/>
     <mergeCell ref="L5:L8"/>
     <mergeCell ref="E9:J10"/>
@@ -3469,39 +4518,14 @@
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="E45:E48"/>
-    <mergeCell ref="B45:B76"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="B5:B20"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="C45:C60"/>
-    <mergeCell ref="D45:D52"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="D87:M90"/>
-    <mergeCell ref="D91:M94"/>
-    <mergeCell ref="E95:M96"/>
-    <mergeCell ref="E97:M98"/>
-    <mergeCell ref="D83:M86"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="O91:O94"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="O53:O60"/>
-    <mergeCell ref="O61:O68"/>
-    <mergeCell ref="O69:O72"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="O87:O90"/>
+    <mergeCell ref="E61:M68"/>
+    <mergeCell ref="F69:M72"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="E11:J12"/>
+    <mergeCell ref="D13:J20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
+++ b/SIST.INFORMÁTICOS/2 TRIM/MAPA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECH\Desktop\CEU\SIST.INFORMÁTICOS\2 TRIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448DB019-0CD7-44E9-8BB5-E137B3A8EE58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B132E252-FE7E-4047-9579-DCC49EAF1A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8175" xr2:uid="{BC5CBF70-75DA-4C7C-BBD6-19381107FCF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC5CBF70-75DA-4C7C-BBD6-19381107FCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -538,9 +538,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,15 +788,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,36 +795,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,190 +831,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,7 +1149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2678E093-4CB8-48C1-949C-F6C288EE2268}">
   <dimension ref="B3:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q128" sqref="Q128"/>
     </sheetView>
   </sheetViews>
@@ -1227,25 +1227,25 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="86"/>
-      <c r="C5" s="67">
-        <v>0</v>
-      </c>
-      <c r="D5" s="67">
-        <v>0</v>
-      </c>
-      <c r="E5" s="51" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="33" t="s">
         <v>9</v>
       </c>
       <c r="O5" t="s">
@@ -1253,230 +1253,230 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="87"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="32"/>
+      <c r="L6" s="33"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="87"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="32"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="87"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="32"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="87"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="67">
-        <v>1</v>
-      </c>
-      <c r="E9" s="60" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
       <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="87"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="89"/>
       <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="32"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="87"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="33" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="87"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="87"/>
-      <c r="C13" s="67">
-        <v>1</v>
-      </c>
-      <c r="D13" s="39" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L13" s="110" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="87"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="48"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="87"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="106"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="48"/>
+      <c r="L15" s="110"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="87"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="48"/>
+      <c r="L16" s="110"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="87"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="48"/>
+      <c r="L17" s="110"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="87"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="106"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="48"/>
+      <c r="L18" s="110"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="87"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="48"/>
+      <c r="L19" s="110"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="88"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="109"/>
       <c r="K20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="48"/>
+      <c r="L20" s="110"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N21" s="3"/>
@@ -1560,8 +1560,8 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -1575,8 +1575,8 @@
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1590,8 +1590,8 @@
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1605,8 +1605,8 @@
       <c r="N27" s="5"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1620,8 +1620,8 @@
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1635,8 +1635,8 @@
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1650,8 +1650,8 @@
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1665,8 +1665,8 @@
       <c r="N31" s="5"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1680,8 +1680,8 @@
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="68"/>
-      <c r="C33" s="67"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1695,8 +1695,8 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1710,8 +1710,8 @@
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1725,8 +1725,8 @@
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1740,8 +1740,8 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1755,8 +1755,8 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1770,8 +1770,8 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1785,8 +1785,8 @@
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1906,52 +1906,52 @@
         <v>8</v>
       </c>
       <c r="N44" s="5"/>
-      <c r="Q44" s="97" t="s">
+      <c r="Q44" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R44" s="98"/>
-      <c r="S44" s="97" t="s">
+      <c r="R44" s="32"/>
+      <c r="S44" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="T44" s="98"/>
-      <c r="U44" s="97" t="s">
+      <c r="T44" s="32"/>
+      <c r="U44" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="V44" s="98"/>
-      <c r="W44" s="97" t="s">
+      <c r="V44" s="32"/>
+      <c r="W44" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="X44" s="98"/>
+      <c r="X44" s="32"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="67">
-        <v>0</v>
-      </c>
-      <c r="C45" s="35">
-        <v>0</v>
-      </c>
-      <c r="D45" s="67">
-        <v>0</v>
-      </c>
-      <c r="E45" s="67">
-        <v>0</v>
-      </c>
-      <c r="F45" s="49">
-        <v>0</v>
-      </c>
-      <c r="G45" s="70" t="s">
+      <c r="B45" s="16">
+        <v>0</v>
+      </c>
+      <c r="C45" s="66">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0</v>
+      </c>
+      <c r="F45" s="111">
+        <v>0</v>
+      </c>
+      <c r="G45" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="72"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="36"/>
       <c r="N45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O45" s="32" t="s">
+      <c r="O45" s="33" t="s">
         <v>1</v>
       </c>
       <c r="P45" s="12"/>
@@ -1981,22 +1981,22 @@
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="68"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="75"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="42"/>
       <c r="N46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O46" s="32"/>
+      <c r="O46" s="33"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="11" t="s">
         <v>62</v>
@@ -2024,22 +2024,22 @@
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="68"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="49">
-        <v>1</v>
-      </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="35"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="111">
+        <v>1</v>
+      </c>
+      <c r="G47" s="64"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="66"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="32"/>
+      <c r="O47" s="33"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="11" t="s">
         <v>64</v>
@@ -2059,20 +2059,20 @@
       <c r="X47" s="8"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B48" s="68"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="38"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="71"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="32"/>
+      <c r="O48" s="33"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="11" t="s">
         <v>65</v>
@@ -2100,20 +2100,20 @@
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="68"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="33" t="s">
+      <c r="B49" s="17"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="35"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="66"/>
       <c r="N49" s="5" t="s">
         <v>32</v>
       </c>
@@ -2129,52 +2129,52 @@
       <c r="X49" s="12"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="68"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="66"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="68"/>
       <c r="N50" s="5"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="68"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="66"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="68"/>
       <c r="N51" s="5"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="68"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="38"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="71"/>
       <c r="N52" s="5" t="s">
         <v>36</v>
       </c>
@@ -2182,395 +2182,395 @@
       <c r="P52" s="12"/>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="68"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67">
-        <v>1</v>
-      </c>
-      <c r="E53" s="76" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E53" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="78"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="45"/>
       <c r="N53" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O53" s="32" t="s">
+      <c r="O53" s="33" t="s">
         <v>29</v>
       </c>
       <c r="P53" s="12"/>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B54" s="68"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="81"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="48"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="32"/>
+      <c r="O54" s="33"/>
       <c r="P54" s="12"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B55" s="68"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="81"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="48"/>
       <c r="N55" s="5"/>
-      <c r="O55" s="32"/>
+      <c r="O55" s="33"/>
       <c r="P55" s="12"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="68"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="81"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="48"/>
       <c r="N56" s="10">
         <v>10255</v>
       </c>
-      <c r="O56" s="32"/>
+      <c r="O56" s="33"/>
       <c r="P56" s="12"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="68"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="81"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="48"/>
       <c r="N57" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O57" s="32"/>
+      <c r="O57" s="33"/>
       <c r="P57" s="12"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B58" s="68"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="81"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="48"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="32"/>
+      <c r="O58" s="33"/>
       <c r="P58" s="12"/>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="68"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="81"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="48"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="32"/>
+      <c r="O59" s="33"/>
       <c r="P59" s="12"/>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B60" s="68"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="84"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="51"/>
       <c r="N60" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O60" s="32"/>
+      <c r="O60" s="33"/>
       <c r="P60" s="12"/>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B61" s="68"/>
-      <c r="C61" s="35">
-        <v>1</v>
-      </c>
-      <c r="D61" s="67">
-        <v>0</v>
-      </c>
-      <c r="E61" s="14" t="s">
+      <c r="B61" s="17"/>
+      <c r="C61" s="66">
+        <v>1</v>
+      </c>
+      <c r="D61" s="16">
+        <v>0</v>
+      </c>
+      <c r="E61" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="16"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="91"/>
       <c r="N61" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O61" s="32" t="s">
+      <c r="O61" s="33" t="s">
         <v>29</v>
       </c>
       <c r="P61" s="12"/>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B62" s="68"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="19"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
+      <c r="M62" s="94"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="32"/>
+      <c r="O62" s="33"/>
       <c r="P62" s="12"/>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B63" s="68"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="19"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="94"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="32"/>
+      <c r="O63" s="33"/>
       <c r="P63" s="12"/>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B64" s="68"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="19"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93"/>
+      <c r="M64" s="94"/>
       <c r="N64" s="10">
         <v>12255</v>
       </c>
-      <c r="O64" s="32"/>
+      <c r="O64" s="33"/>
       <c r="P64" s="12"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="68"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="19"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="93"/>
+      <c r="M65" s="94"/>
       <c r="N65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O65" s="32"/>
+      <c r="O65" s="33"/>
       <c r="P65" s="12"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="68"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="19"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="93"/>
+      <c r="M66" s="94"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="32"/>
+      <c r="O66" s="33"/>
       <c r="P66" s="12"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="68"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="19"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="94"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="32"/>
+      <c r="O67" s="33"/>
       <c r="P67" s="12"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="68"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="22"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="96"/>
+      <c r="M68" s="97"/>
       <c r="N68" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O68" s="32"/>
+      <c r="O68" s="33"/>
       <c r="P68" s="12"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="68"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="67">
-        <v>1</v>
-      </c>
-      <c r="E69" s="67">
-        <v>0</v>
-      </c>
-      <c r="F69" s="23" t="s">
+      <c r="B69" s="17"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="16">
+        <v>1</v>
+      </c>
+      <c r="E69" s="16">
+        <v>0</v>
+      </c>
+      <c r="F69" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="25"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="60"/>
       <c r="N69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O69" s="32" t="s">
+      <c r="O69" s="33" t="s">
         <v>0</v>
       </c>
       <c r="P69" s="12"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="68"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="28"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="99"/>
+      <c r="M70" s="100"/>
       <c r="N70" s="5"/>
-      <c r="O70" s="32"/>
+      <c r="O70" s="33"/>
       <c r="P70" s="12"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="68"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="28"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="99"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="100"/>
       <c r="N71" s="5"/>
-      <c r="O71" s="32"/>
+      <c r="O71" s="33"/>
       <c r="P71" s="12"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="68"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="31"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="63"/>
       <c r="N72" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O72" s="32"/>
+      <c r="O72" s="33"/>
       <c r="P72" s="12"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="68"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="67">
-        <v>1</v>
-      </c>
-      <c r="F73" s="67">
+      <c r="B73" s="17"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="16">
+        <v>1</v>
+      </c>
+      <c r="F73" s="16">
         <v>0</v>
       </c>
       <c r="G73" s="8"/>
@@ -2585,11 +2585,11 @@
       <c r="P73" s="12"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="68"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="69"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -2602,11 +2602,11 @@
       <c r="P74" s="12"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B75" s="68"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="67">
+      <c r="B75" s="17"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="16">
         <v>1</v>
       </c>
       <c r="G75" s="8"/>
@@ -2621,11 +2621,11 @@
       <c r="P75" s="12"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="69"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -2778,308 +2778,308 @@
       <c r="N82" s="5"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="67"/>
-      <c r="C83" s="67">
-        <v>0</v>
-      </c>
-      <c r="D83" s="33" t="s">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16">
+        <v>0</v>
+      </c>
+      <c r="D83" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="35"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="66"/>
       <c r="N83" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B84" s="68"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="66"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="68"/>
       <c r="N84" s="5"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="32"/>
-      <c r="M85" s="66"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="68"/>
       <c r="N85" s="5"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" s="68"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="38"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="70"/>
+      <c r="H86" s="70"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="70"/>
+      <c r="K86" s="70"/>
+      <c r="L86" s="70"/>
+      <c r="M86" s="71"/>
       <c r="N86" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="70" t="s">
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="71"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="71"/>
-      <c r="L87" s="71"/>
-      <c r="M87" s="72"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="36"/>
       <c r="N87" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O87" s="32" t="s">
+      <c r="O87" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
-      <c r="K88" s="90"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="91"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="39"/>
       <c r="N88" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O88" s="32"/>
+      <c r="O88" s="33"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
-      <c r="K89" s="90"/>
-      <c r="L89" s="90"/>
-      <c r="M89" s="91"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="39"/>
       <c r="N89" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O89" s="32"/>
+      <c r="O89" s="33"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="68"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="73"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="74"/>
-      <c r="K90" s="74"/>
-      <c r="L90" s="74"/>
-      <c r="M90" s="75"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="42"/>
       <c r="N90" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O90" s="32"/>
+      <c r="O90" s="33"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="68"/>
-      <c r="C91" s="67">
-        <v>1</v>
-      </c>
-      <c r="D91" s="76" t="s">
+      <c r="B91" s="17"/>
+      <c r="C91" s="16">
+        <v>1</v>
+      </c>
+      <c r="D91" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="77"/>
-      <c r="L91" s="77"/>
-      <c r="M91" s="78"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="45"/>
       <c r="N91" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O91" s="32" t="s">
+      <c r="O91" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B92" s="68"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="79"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="80"/>
-      <c r="I92" s="80"/>
-      <c r="J92" s="80"/>
-      <c r="K92" s="80"/>
-      <c r="L92" s="80"/>
-      <c r="M92" s="81"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="48"/>
       <c r="N92" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O92" s="32"/>
+      <c r="O92" s="33"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="79"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="80"/>
-      <c r="G93" s="80"/>
-      <c r="H93" s="80"/>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
-      <c r="K93" s="80"/>
-      <c r="L93" s="80"/>
-      <c r="M93" s="81"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="48"/>
       <c r="N93" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O93" s="32"/>
+      <c r="O93" s="33"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B94" s="68"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="83"/>
-      <c r="J94" s="83"/>
-      <c r="K94" s="83"/>
-      <c r="L94" s="83"/>
-      <c r="M94" s="84"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="51"/>
       <c r="N94" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O94" s="32"/>
+      <c r="O94" s="33"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="67">
-        <v>1</v>
-      </c>
-      <c r="E95" s="14" t="s">
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="16">
+        <v>1</v>
+      </c>
+      <c r="E95" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
-      <c r="J95" s="92"/>
-      <c r="K95" s="92"/>
-      <c r="L95" s="92"/>
-      <c r="M95" s="93"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="53"/>
+      <c r="L95" s="53"/>
+      <c r="M95" s="54"/>
       <c r="N95" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O95" s="32" t="s">
+      <c r="O95" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B96" s="68"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="94"/>
-      <c r="F96" s="95"/>
-      <c r="G96" s="95"/>
-      <c r="H96" s="95"/>
-      <c r="I96" s="95"/>
-      <c r="J96" s="95"/>
-      <c r="K96" s="95"/>
-      <c r="L96" s="95"/>
-      <c r="M96" s="96"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="57"/>
       <c r="N96" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O96" s="32"/>
+      <c r="O96" s="33"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="23" t="s">
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="25"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="60"/>
       <c r="N97" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O97" s="32" t="s">
+      <c r="O97" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="31"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="62"/>
+      <c r="J98" s="62"/>
+      <c r="K98" s="62"/>
+      <c r="L98" s="62"/>
+      <c r="M98" s="63"/>
       <c r="N98" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O98" s="32"/>
+      <c r="O98" s="33"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
@@ -3202,26 +3202,26 @@
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" s="67"/>
-      <c r="D104" s="67">
-        <v>0</v>
-      </c>
-      <c r="E104" s="67">
-        <v>0</v>
-      </c>
-      <c r="F104" s="112">
-        <v>0</v>
-      </c>
-      <c r="G104" s="111" t="s">
+      <c r="C104" s="16"/>
+      <c r="D104" s="16">
+        <v>0</v>
+      </c>
+      <c r="E104" s="16">
+        <v>0</v>
+      </c>
+      <c r="F104" s="19">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H104" s="110"/>
-      <c r="I104" s="110"/>
-      <c r="J104" s="110"/>
-      <c r="K104" s="110"/>
-      <c r="L104" s="110"/>
-      <c r="M104" s="109"/>
-      <c r="N104" s="108" t="s">
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="15" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3229,119 +3229,119 @@
       <c r="B105">
         <v>2</v>
       </c>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="107"/>
-      <c r="G105" s="106"/>
-      <c r="H105" s="105"/>
-      <c r="I105" s="105"/>
-      <c r="J105" s="105"/>
-      <c r="K105" s="105"/>
-      <c r="L105" s="105"/>
-      <c r="M105" s="104"/>
-      <c r="N105" s="108"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="26"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="15"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>3</v>
       </c>
-      <c r="C106" s="68"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="68"/>
-      <c r="F106" s="107"/>
-      <c r="G106" s="106"/>
-      <c r="H106" s="105"/>
-      <c r="I106" s="105"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="105"/>
-      <c r="L106" s="105"/>
-      <c r="M106" s="104"/>
-      <c r="N106" s="108"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="15"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>4</v>
       </c>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="68"/>
-      <c r="F107" s="107"/>
-      <c r="G107" s="106"/>
-      <c r="H107" s="105"/>
-      <c r="I107" s="105"/>
-      <c r="J107" s="105"/>
-      <c r="K107" s="105"/>
-      <c r="L107" s="105"/>
-      <c r="M107" s="104"/>
-      <c r="N107" s="108"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="15"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>5</v>
       </c>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="107"/>
-      <c r="G108" s="106"/>
-      <c r="H108" s="105"/>
-      <c r="I108" s="105"/>
-      <c r="J108" s="105"/>
-      <c r="K108" s="105"/>
-      <c r="L108" s="105"/>
-      <c r="M108" s="104"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="27"/>
       <c r="N108" s="13"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>6</v>
       </c>
-      <c r="C109" s="68"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="107"/>
-      <c r="G109" s="106"/>
-      <c r="H109" s="105"/>
-      <c r="I109" s="105"/>
-      <c r="J109" s="105"/>
-      <c r="K109" s="105"/>
-      <c r="L109" s="105"/>
-      <c r="M109" s="104"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="27"/>
       <c r="N109" s="13"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>7</v>
       </c>
-      <c r="C110" s="68"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="68"/>
-      <c r="F110" s="107"/>
-      <c r="G110" s="106"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="105"/>
-      <c r="J110" s="105"/>
-      <c r="K110" s="105"/>
-      <c r="L110" s="105"/>
-      <c r="M110" s="104"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="27"/>
       <c r="N110" s="13"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>8</v>
       </c>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="103"/>
-      <c r="G111" s="102"/>
-      <c r="H111" s="101"/>
-      <c r="I111" s="101"/>
-      <c r="J111" s="101"/>
-      <c r="K111" s="101"/>
-      <c r="L111" s="101"/>
-      <c r="M111" s="100"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="30"/>
       <c r="N111" s="13" t="s">
         <v>73</v>
       </c>
@@ -3350,16 +3350,16 @@
       <c r="B112">
         <v>9</v>
       </c>
-      <c r="C112" s="68"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="68"/>
-      <c r="F112" s="67">
-        <v>1</v>
-      </c>
-      <c r="G112" s="67">
-        <v>0</v>
-      </c>
-      <c r="H112" s="67">
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="16">
+        <v>1</v>
+      </c>
+      <c r="G112" s="16">
+        <v>0</v>
+      </c>
+      <c r="H112" s="16">
         <v>0</v>
       </c>
       <c r="I112" s="11"/>
@@ -3375,12 +3375,12 @@
       <c r="B113">
         <v>10</v>
       </c>
-      <c r="C113" s="68"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="68"/>
-      <c r="H113" s="69"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="18"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
@@ -3392,12 +3392,12 @@
       <c r="B114">
         <v>11</v>
       </c>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="68"/>
-      <c r="H114" s="67">
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="16">
         <v>1</v>
       </c>
       <c r="I114" s="11"/>
@@ -3411,12 +3411,12 @@
       <c r="B115">
         <v>12</v>
       </c>
-      <c r="C115" s="68"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="68"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
@@ -3428,14 +3428,14 @@
       <c r="B116">
         <v>13</v>
       </c>
-      <c r="C116" s="68"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="67">
-        <v>1</v>
-      </c>
-      <c r="H116" s="67">
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="16">
+        <v>1</v>
+      </c>
+      <c r="H116" s="16">
         <v>0</v>
       </c>
       <c r="I116" s="11"/>
@@ -3449,12 +3449,12 @@
       <c r="B117">
         <v>14</v>
       </c>
-      <c r="C117" s="68"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="68"/>
-      <c r="F117" s="68"/>
-      <c r="G117" s="68"/>
-      <c r="H117" s="69"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="18"/>
       <c r="I117" s="11"/>
       <c r="J117" s="11"/>
       <c r="K117" s="11"/>
@@ -3466,12 +3466,12 @@
       <c r="B118">
         <v>15</v>
       </c>
-      <c r="C118" s="68"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="68"/>
-      <c r="F118" s="68"/>
-      <c r="G118" s="68"/>
-      <c r="H118" s="67">
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="16">
         <v>1</v>
       </c>
       <c r="I118" s="11"/>
@@ -3485,12 +3485,12 @@
       <c r="B119">
         <v>16</v>
       </c>
-      <c r="C119" s="68"/>
-      <c r="D119" s="68"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="69"/>
-      <c r="H119" s="69"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
       <c r="I119" s="11"/>
       <c r="J119" s="11"/>
       <c r="K119" s="11"/>
@@ -3502,18 +3502,18 @@
       <c r="B120">
         <v>17</v>
       </c>
-      <c r="C120" s="68"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="67">
-        <v>1</v>
-      </c>
-      <c r="F120" s="67">
-        <v>0</v>
-      </c>
-      <c r="G120" s="67">
-        <v>0</v>
-      </c>
-      <c r="H120" s="67">
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="16">
+        <v>1</v>
+      </c>
+      <c r="F120" s="16">
+        <v>0</v>
+      </c>
+      <c r="G120" s="16">
+        <v>0</v>
+      </c>
+      <c r="H120" s="16">
         <v>0</v>
       </c>
       <c r="I120" s="11"/>
@@ -3527,12 +3527,12 @@
       <c r="B121">
         <v>18</v>
       </c>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="68"/>
-      <c r="H121" s="69"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="18"/>
       <c r="I121" s="11"/>
       <c r="J121" s="11"/>
       <c r="K121" s="11"/>
@@ -3544,12 +3544,12 @@
       <c r="B122">
         <v>19</v>
       </c>
-      <c r="C122" s="68"/>
-      <c r="D122" s="68"/>
-      <c r="E122" s="68"/>
-      <c r="F122" s="68"/>
-      <c r="G122" s="68"/>
-      <c r="H122" s="67">
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="16">
         <v>1</v>
       </c>
       <c r="I122" s="11"/>
@@ -3563,12 +3563,12 @@
       <c r="B123">
         <v>20</v>
       </c>
-      <c r="C123" s="68"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68"/>
-      <c r="F123" s="68"/>
-      <c r="G123" s="69"/>
-      <c r="H123" s="69"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
@@ -3580,14 +3580,14 @@
       <c r="B124">
         <v>21</v>
       </c>
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="67">
-        <v>1</v>
-      </c>
-      <c r="H124" s="67">
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="16">
+        <v>1</v>
+      </c>
+      <c r="H124" s="16">
         <v>0</v>
       </c>
       <c r="I124" s="11"/>
@@ -3601,12 +3601,12 @@
       <c r="B125">
         <v>22</v>
       </c>
-      <c r="C125" s="68"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="68"/>
-      <c r="F125" s="68"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="69"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="18"/>
       <c r="I125" s="11"/>
       <c r="J125" s="11"/>
       <c r="K125" s="11"/>
@@ -3618,12 +3618,12 @@
       <c r="B126">
         <v>23</v>
       </c>
-      <c r="C126" s="68"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="68"/>
-      <c r="F126" s="68"/>
-      <c r="G126" s="68"/>
-      <c r="H126" s="67">
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="16">
         <v>1</v>
       </c>
       <c r="I126" s="11"/>
@@ -3637,12 +3637,12 @@
       <c r="B127">
         <v>24</v>
       </c>
-      <c r="C127" s="68"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="68"/>
-      <c r="F127" s="69"/>
-      <c r="G127" s="69"/>
-      <c r="H127" s="69"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
       <c r="I127" s="11"/>
       <c r="J127" s="11"/>
       <c r="K127" s="11"/>
@@ -3654,16 +3654,16 @@
       <c r="B128">
         <v>25</v>
       </c>
-      <c r="C128" s="68"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="68"/>
-      <c r="F128" s="67">
-        <v>1</v>
-      </c>
-      <c r="G128" s="67">
-        <v>0</v>
-      </c>
-      <c r="H128" s="67">
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="16">
+        <v>1</v>
+      </c>
+      <c r="G128" s="16">
+        <v>0</v>
+      </c>
+      <c r="H128" s="16">
         <v>0</v>
       </c>
       <c r="I128" s="11"/>
@@ -3678,12 +3678,12 @@
       <c r="B129">
         <v>26</v>
       </c>
-      <c r="C129" s="68"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="68"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="68"/>
-      <c r="H129" s="69"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="18"/>
       <c r="I129" s="11"/>
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
@@ -3695,12 +3695,12 @@
       <c r="B130">
         <v>27</v>
       </c>
-      <c r="C130" s="68"/>
-      <c r="D130" s="68"/>
-      <c r="E130" s="68"/>
-      <c r="F130" s="68"/>
-      <c r="G130" s="68"/>
-      <c r="H130" s="67">
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="16">
         <v>1</v>
       </c>
       <c r="I130" s="11"/>
@@ -3714,12 +3714,12 @@
       <c r="B131">
         <v>28</v>
       </c>
-      <c r="C131" s="68"/>
-      <c r="D131" s="68"/>
-      <c r="E131" s="68"/>
-      <c r="F131" s="68"/>
-      <c r="G131" s="69"/>
-      <c r="H131" s="69"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
       <c r="I131" s="11"/>
       <c r="J131" s="11"/>
       <c r="K131" s="11"/>
@@ -3731,14 +3731,14 @@
       <c r="B132">
         <v>29</v>
       </c>
-      <c r="C132" s="68"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="68"/>
-      <c r="F132" s="68"/>
-      <c r="G132" s="67">
-        <v>1</v>
-      </c>
-      <c r="H132" s="67">
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="16">
+        <v>1</v>
+      </c>
+      <c r="H132" s="16">
         <v>0</v>
       </c>
       <c r="I132" s="11"/>
@@ -3752,12 +3752,12 @@
       <c r="B133">
         <v>30</v>
       </c>
-      <c r="C133" s="68"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="68"/>
-      <c r="H133" s="69"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="18"/>
       <c r="I133" s="11"/>
       <c r="J133" s="11"/>
       <c r="K133" s="11"/>
@@ -3769,12 +3769,12 @@
       <c r="B134">
         <v>31</v>
       </c>
-      <c r="C134" s="68"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="68"/>
-      <c r="G134" s="68"/>
-      <c r="H134" s="67">
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="16">
         <v>1</v>
       </c>
       <c r="I134" s="11"/>
@@ -3788,12 +3788,12 @@
       <c r="B135">
         <v>32</v>
       </c>
-      <c r="C135" s="68"/>
-      <c r="D135" s="69"/>
-      <c r="E135" s="69"/>
-      <c r="F135" s="69"/>
-      <c r="G135" s="69"/>
-      <c r="H135" s="69"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
       <c r="I135" s="11"/>
       <c r="J135" s="11"/>
       <c r="K135" s="11"/>
@@ -3805,703 +3805,612 @@
       <c r="B136">
         <v>33</v>
       </c>
-      <c r="C136" s="68"/>
-      <c r="D136" s="67">
-        <v>1</v>
-      </c>
-      <c r="E136" s="67">
-        <v>0</v>
-      </c>
-      <c r="F136" s="67">
-        <v>0</v>
-      </c>
-      <c r="G136" s="67">
-        <v>0</v>
-      </c>
-      <c r="H136" s="67">
-        <v>0</v>
-      </c>
-      <c r="I136" s="99"/>
-      <c r="J136" s="99"/>
-      <c r="K136" s="99"/>
-      <c r="L136" s="99"/>
-      <c r="M136" s="99"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="16">
+        <v>1</v>
+      </c>
+      <c r="E136" s="16">
+        <v>0</v>
+      </c>
+      <c r="F136" s="16">
+        <v>0</v>
+      </c>
+      <c r="G136" s="16">
+        <v>0</v>
+      </c>
+      <c r="H136" s="16">
+        <v>0</v>
+      </c>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
       <c r="N136" s="13"/>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>34</v>
       </c>
-      <c r="C137" s="68"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="69"/>
-      <c r="I137" s="99"/>
-      <c r="J137" s="99"/>
-      <c r="K137" s="99"/>
-      <c r="L137" s="99"/>
-      <c r="M137" s="99"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
       <c r="N137" s="13"/>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>35</v>
       </c>
-      <c r="C138" s="68"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="68"/>
-      <c r="F138" s="68"/>
-      <c r="G138" s="68"/>
-      <c r="H138" s="67">
-        <v>1</v>
-      </c>
-      <c r="I138" s="99"/>
-      <c r="J138" s="99"/>
-      <c r="K138" s="99"/>
-      <c r="L138" s="99"/>
-      <c r="M138" s="99"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="16">
+        <v>1</v>
+      </c>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
       <c r="N138" s="13"/>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>36</v>
       </c>
-      <c r="C139" s="68"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="68"/>
-      <c r="F139" s="68"/>
-      <c r="G139" s="69"/>
-      <c r="H139" s="69"/>
-      <c r="I139" s="99"/>
-      <c r="J139" s="99"/>
-      <c r="K139" s="99"/>
-      <c r="L139" s="99"/>
-      <c r="M139" s="99"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
       <c r="N139" s="13"/>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>37</v>
       </c>
-      <c r="C140" s="68"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="68"/>
-      <c r="F140" s="68"/>
-      <c r="G140" s="67">
-        <v>1</v>
-      </c>
-      <c r="H140" s="67">
-        <v>0</v>
-      </c>
-      <c r="I140" s="99"/>
-      <c r="J140" s="99"/>
-      <c r="K140" s="99"/>
-      <c r="L140" s="99"/>
-      <c r="M140" s="99"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="16">
+        <v>1</v>
+      </c>
+      <c r="H140" s="16">
+        <v>0</v>
+      </c>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
       <c r="N140" s="13"/>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>38</v>
       </c>
-      <c r="C141" s="68"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="68"/>
-      <c r="G141" s="68"/>
-      <c r="H141" s="69"/>
-      <c r="I141" s="99"/>
-      <c r="J141" s="99"/>
-      <c r="K141" s="99"/>
-      <c r="L141" s="99"/>
-      <c r="M141" s="99"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
       <c r="N141" s="13"/>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>39</v>
       </c>
-      <c r="C142" s="68"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="68"/>
-      <c r="F142" s="68"/>
-      <c r="G142" s="68"/>
-      <c r="H142" s="67">
-        <v>1</v>
-      </c>
-      <c r="I142" s="99"/>
-      <c r="J142" s="99"/>
-      <c r="K142" s="99"/>
-      <c r="L142" s="99"/>
-      <c r="M142" s="99"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="16">
+        <v>1</v>
+      </c>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
       <c r="N142" s="13"/>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>40</v>
       </c>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="69"/>
-      <c r="G143" s="69"/>
-      <c r="H143" s="69"/>
-      <c r="I143" s="99"/>
-      <c r="J143" s="99"/>
-      <c r="K143" s="99"/>
-      <c r="L143" s="99"/>
-      <c r="M143" s="99"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
       <c r="N143" s="13"/>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>41</v>
       </c>
-      <c r="C144" s="68"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="67">
-        <v>1</v>
-      </c>
-      <c r="G144" s="67">
-        <v>0</v>
-      </c>
-      <c r="H144" s="67">
-        <v>0</v>
-      </c>
-      <c r="I144" s="99"/>
-      <c r="J144" s="99"/>
-      <c r="K144" s="99"/>
-      <c r="L144" s="99"/>
-      <c r="M144" s="99"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="16">
+        <v>1</v>
+      </c>
+      <c r="G144" s="16">
+        <v>0</v>
+      </c>
+      <c r="H144" s="16">
+        <v>0</v>
+      </c>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
       <c r="N144" s="13"/>
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>42</v>
       </c>
-      <c r="C145" s="68"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="68"/>
-      <c r="F145" s="68"/>
-      <c r="G145" s="68"/>
-      <c r="H145" s="69"/>
-      <c r="I145" s="99"/>
-      <c r="J145" s="99"/>
-      <c r="K145" s="99"/>
-      <c r="L145" s="99"/>
-      <c r="M145" s="99"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
       <c r="N145" s="13"/>
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>43</v>
       </c>
-      <c r="C146" s="68"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="68"/>
-      <c r="F146" s="68"/>
-      <c r="G146" s="68"/>
-      <c r="H146" s="67">
-        <v>1</v>
-      </c>
-      <c r="I146" s="99"/>
-      <c r="J146" s="99"/>
-      <c r="K146" s="99"/>
-      <c r="L146" s="99"/>
-      <c r="M146" s="99"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="16">
+        <v>1</v>
+      </c>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="14"/>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14"/>
       <c r="N146" s="13"/>
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>44</v>
       </c>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="68"/>
-      <c r="G147" s="69"/>
-      <c r="H147" s="69"/>
-      <c r="I147" s="99"/>
-      <c r="J147" s="99"/>
-      <c r="K147" s="99"/>
-      <c r="L147" s="99"/>
-      <c r="M147" s="99"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14"/>
       <c r="N147" s="13"/>
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>45</v>
       </c>
-      <c r="C148" s="68"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="68"/>
-      <c r="F148" s="68"/>
-      <c r="G148" s="67">
-        <v>1</v>
-      </c>
-      <c r="H148" s="67">
-        <v>0</v>
-      </c>
-      <c r="I148" s="99"/>
-      <c r="J148" s="99"/>
-      <c r="K148" s="99"/>
-      <c r="L148" s="99"/>
-      <c r="M148" s="99"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="16">
+        <v>1</v>
+      </c>
+      <c r="H148" s="16">
+        <v>0</v>
+      </c>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
       <c r="N148" s="13"/>
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>46</v>
       </c>
-      <c r="C149" s="68"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="68"/>
-      <c r="F149" s="68"/>
-      <c r="G149" s="68"/>
-      <c r="H149" s="69"/>
-      <c r="I149" s="99"/>
-      <c r="J149" s="99"/>
-      <c r="K149" s="99"/>
-      <c r="L149" s="99"/>
-      <c r="M149" s="99"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
       <c r="N149" s="13"/>
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>47</v>
       </c>
-      <c r="C150" s="68"/>
-      <c r="D150" s="68"/>
-      <c r="E150" s="68"/>
-      <c r="F150" s="68"/>
-      <c r="G150" s="68"/>
-      <c r="H150" s="67">
-        <v>1</v>
-      </c>
-      <c r="I150" s="99"/>
-      <c r="J150" s="99"/>
-      <c r="K150" s="99"/>
-      <c r="L150" s="99"/>
-      <c r="M150" s="99"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="16">
+        <v>1</v>
+      </c>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
       <c r="N150" s="13"/>
     </row>
     <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>48</v>
       </c>
-      <c r="C151" s="68"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="69"/>
-      <c r="F151" s="69"/>
-      <c r="G151" s="69"/>
-      <c r="H151" s="69"/>
-      <c r="I151" s="99"/>
-      <c r="J151" s="99"/>
-      <c r="K151" s="99"/>
-      <c r="L151" s="99"/>
-      <c r="M151" s="99"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="14"/>
+      <c r="M151" s="14"/>
       <c r="N151" s="13"/>
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>49</v>
       </c>
-      <c r="C152" s="68"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="67">
-        <v>1</v>
-      </c>
-      <c r="F152" s="67">
-        <v>0</v>
-      </c>
-      <c r="G152" s="67">
-        <v>0</v>
-      </c>
-      <c r="H152" s="67">
-        <v>0</v>
-      </c>
-      <c r="I152" s="99"/>
-      <c r="J152" s="99"/>
-      <c r="K152" s="99"/>
-      <c r="L152" s="99"/>
-      <c r="M152" s="99"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="16">
+        <v>1</v>
+      </c>
+      <c r="F152" s="16">
+        <v>0</v>
+      </c>
+      <c r="G152" s="16">
+        <v>0</v>
+      </c>
+      <c r="H152" s="16">
+        <v>0</v>
+      </c>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
       <c r="N152" s="13"/>
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>50</v>
       </c>
-      <c r="C153" s="68"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="68"/>
-      <c r="F153" s="68"/>
-      <c r="G153" s="68"/>
-      <c r="H153" s="69"/>
-      <c r="I153" s="99"/>
-      <c r="J153" s="99"/>
-      <c r="K153" s="99"/>
-      <c r="L153" s="99"/>
-      <c r="M153" s="99"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
+      <c r="L153" s="14"/>
+      <c r="M153" s="14"/>
       <c r="N153" s="13"/>
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>51</v>
       </c>
-      <c r="C154" s="68"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="68"/>
-      <c r="F154" s="68"/>
-      <c r="G154" s="68"/>
-      <c r="H154" s="67">
-        <v>1</v>
-      </c>
-      <c r="I154" s="99"/>
-      <c r="J154" s="99"/>
-      <c r="K154" s="99"/>
-      <c r="L154" s="99"/>
-      <c r="M154" s="99"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="16">
+        <v>1</v>
+      </c>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="14"/>
+      <c r="L154" s="14"/>
+      <c r="M154" s="14"/>
       <c r="N154" s="13"/>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>52</v>
       </c>
-      <c r="C155" s="68"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="68"/>
-      <c r="F155" s="68"/>
-      <c r="G155" s="69"/>
-      <c r="H155" s="69"/>
-      <c r="I155" s="99"/>
-      <c r="J155" s="99"/>
-      <c r="K155" s="99"/>
-      <c r="L155" s="99"/>
-      <c r="M155" s="99"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
       <c r="N155" s="13"/>
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>53</v>
       </c>
-      <c r="C156" s="68"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="68"/>
-      <c r="F156" s="68"/>
-      <c r="G156" s="67">
-        <v>1</v>
-      </c>
-      <c r="H156" s="67">
-        <v>0</v>
-      </c>
-      <c r="I156" s="99"/>
-      <c r="J156" s="99"/>
-      <c r="K156" s="99"/>
-      <c r="L156" s="99"/>
-      <c r="M156" s="99"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="16">
+        <v>1</v>
+      </c>
+      <c r="H156" s="16">
+        <v>0</v>
+      </c>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
       <c r="N156" s="13"/>
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>54</v>
       </c>
-      <c r="C157" s="68"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="68"/>
-      <c r="F157" s="68"/>
-      <c r="G157" s="68"/>
-      <c r="H157" s="69"/>
-      <c r="I157" s="99"/>
-      <c r="J157" s="99"/>
-      <c r="K157" s="99"/>
-      <c r="L157" s="99"/>
-      <c r="M157" s="99"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="14"/>
+      <c r="L157" s="14"/>
+      <c r="M157" s="14"/>
       <c r="N157" s="13"/>
     </row>
     <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>55</v>
       </c>
-      <c r="C158" s="68"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="68"/>
-      <c r="F158" s="68"/>
-      <c r="G158" s="68"/>
-      <c r="H158" s="67">
-        <v>1</v>
-      </c>
-      <c r="I158" s="99"/>
-      <c r="J158" s="99"/>
-      <c r="K158" s="99"/>
-      <c r="L158" s="99"/>
-      <c r="M158" s="99"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="16">
+        <v>1</v>
+      </c>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="14"/>
+      <c r="M158" s="14"/>
       <c r="N158" s="13"/>
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>56</v>
       </c>
-      <c r="C159" s="68"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="68"/>
-      <c r="F159" s="69"/>
-      <c r="G159" s="69"/>
-      <c r="H159" s="69"/>
-      <c r="I159" s="99"/>
-      <c r="J159" s="99"/>
-      <c r="K159" s="99"/>
-      <c r="L159" s="99"/>
-      <c r="M159" s="99"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="14"/>
+      <c r="J159" s="14"/>
+      <c r="K159" s="14"/>
+      <c r="L159" s="14"/>
+      <c r="M159" s="14"/>
       <c r="N159" s="13"/>
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>57</v>
       </c>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="67">
-        <v>1</v>
-      </c>
-      <c r="G160" s="67">
-        <v>0</v>
-      </c>
-      <c r="H160" s="67">
-        <v>0</v>
-      </c>
-      <c r="I160" s="99"/>
-      <c r="J160" s="99"/>
-      <c r="K160" s="99"/>
-      <c r="L160" s="99"/>
-      <c r="M160" s="99"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="16">
+        <v>1</v>
+      </c>
+      <c r="G160" s="16">
+        <v>0</v>
+      </c>
+      <c r="H160" s="16">
+        <v>0</v>
+      </c>
+      <c r="I160" s="14"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="14"/>
+      <c r="L160" s="14"/>
+      <c r="M160" s="14"/>
       <c r="N160" s="13"/>
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>58</v>
       </c>
-      <c r="C161" s="68"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="68"/>
-      <c r="F161" s="68"/>
-      <c r="G161" s="68"/>
-      <c r="H161" s="69"/>
-      <c r="I161" s="99"/>
-      <c r="J161" s="99"/>
-      <c r="K161" s="99"/>
-      <c r="L161" s="99"/>
-      <c r="M161" s="99"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="14"/>
+      <c r="J161" s="14"/>
+      <c r="K161" s="14"/>
+      <c r="L161" s="14"/>
+      <c r="M161" s="14"/>
       <c r="N161" s="13"/>
     </row>
     <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>59</v>
       </c>
-      <c r="C162" s="68"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="68"/>
-      <c r="F162" s="68"/>
-      <c r="G162" s="68"/>
-      <c r="H162" s="67">
-        <v>1</v>
-      </c>
-      <c r="I162" s="99"/>
-      <c r="J162" s="99"/>
-      <c r="K162" s="99"/>
-      <c r="L162" s="99"/>
-      <c r="M162" s="99"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="16">
+        <v>1</v>
+      </c>
+      <c r="I162" s="14"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="14"/>
+      <c r="L162" s="14"/>
+      <c r="M162" s="14"/>
       <c r="N162" s="13"/>
     </row>
     <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>60</v>
       </c>
-      <c r="C163" s="68"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="68"/>
-      <c r="F163" s="68"/>
-      <c r="G163" s="69"/>
-      <c r="H163" s="69"/>
-      <c r="I163" s="99"/>
-      <c r="J163" s="99"/>
-      <c r="K163" s="99"/>
-      <c r="L163" s="99"/>
-      <c r="M163" s="99"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="14"/>
+      <c r="L163" s="14"/>
+      <c r="M163" s="14"/>
       <c r="N163" s="13"/>
     </row>
     <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>61</v>
       </c>
-      <c r="C164" s="68"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="68"/>
-      <c r="F164" s="68"/>
-      <c r="G164" s="67">
-        <v>1</v>
-      </c>
-      <c r="H164" s="67">
-        <v>0</v>
-      </c>
-      <c r="I164" s="99"/>
-      <c r="J164" s="99"/>
-      <c r="K164" s="99"/>
-      <c r="L164" s="99"/>
-      <c r="M164" s="99"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="16">
+        <v>1</v>
+      </c>
+      <c r="H164" s="16">
+        <v>0</v>
+      </c>
+      <c r="I164" s="14"/>
+      <c r="J164" s="14"/>
+      <c r="K164" s="14"/>
+      <c r="L164" s="14"/>
+      <c r="M164" s="14"/>
       <c r="N164" s="13"/>
     </row>
     <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>62</v>
       </c>
-      <c r="C165" s="68"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="68"/>
-      <c r="F165" s="68"/>
-      <c r="G165" s="68"/>
-      <c r="H165" s="69"/>
-      <c r="I165" s="99"/>
-      <c r="J165" s="99"/>
-      <c r="K165" s="99"/>
-      <c r="L165" s="99"/>
-      <c r="M165" s="99"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="14"/>
+      <c r="J165" s="14"/>
+      <c r="K165" s="14"/>
+      <c r="L165" s="14"/>
+      <c r="M165" s="14"/>
       <c r="N165" s="13"/>
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>63</v>
       </c>
-      <c r="C166" s="68"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="68"/>
-      <c r="F166" s="68"/>
-      <c r="G166" s="68"/>
-      <c r="H166" s="67">
-        <v>1</v>
-      </c>
-      <c r="I166" s="99"/>
-      <c r="J166" s="99"/>
-      <c r="K166" s="99"/>
-      <c r="L166" s="99"/>
-      <c r="M166" s="99"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="16">
+        <v>1</v>
+      </c>
+      <c r="I166" s="14"/>
+      <c r="J166" s="14"/>
+      <c r="K166" s="14"/>
+      <c r="L166" s="14"/>
+      <c r="M166" s="14"/>
       <c r="N166" s="13"/>
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>64</v>
       </c>
-      <c r="C167" s="69"/>
-      <c r="D167" s="69"/>
-      <c r="E167" s="69"/>
-      <c r="F167" s="69"/>
-      <c r="G167" s="69"/>
-      <c r="H167" s="69"/>
-      <c r="I167" s="99"/>
-      <c r="J167" s="99"/>
-      <c r="K167" s="99"/>
-      <c r="L167" s="99"/>
-      <c r="M167" s="99"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="14"/>
+      <c r="K167" s="14"/>
+      <c r="L167" s="14"/>
+      <c r="M167" s="14"/>
       <c r="N167" s="13" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C104:C167"/>
-    <mergeCell ref="D104:D135"/>
-    <mergeCell ref="D136:D167"/>
-    <mergeCell ref="E104:E119"/>
-    <mergeCell ref="E120:E135"/>
-    <mergeCell ref="E136:E151"/>
-    <mergeCell ref="E152:E167"/>
-    <mergeCell ref="F104:F111"/>
-    <mergeCell ref="F112:F119"/>
-    <mergeCell ref="F120:F127"/>
-    <mergeCell ref="F128:F135"/>
-    <mergeCell ref="F136:F143"/>
-    <mergeCell ref="F144:F151"/>
-    <mergeCell ref="F152:F159"/>
-    <mergeCell ref="F160:F167"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="G120:G123"/>
-    <mergeCell ref="G124:G127"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="G116:G119"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="G152:G155"/>
-    <mergeCell ref="G156:G159"/>
-    <mergeCell ref="G160:G163"/>
-    <mergeCell ref="G164:G167"/>
-    <mergeCell ref="G140:G143"/>
-    <mergeCell ref="G144:G147"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="G104:M111"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="H154:H155"/>
-    <mergeCell ref="H156:H157"/>
-    <mergeCell ref="H158:H159"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="H140:H141"/>
-    <mergeCell ref="H142:H143"/>
-    <mergeCell ref="H144:H145"/>
-    <mergeCell ref="H146:H147"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="O87:O90"/>
-    <mergeCell ref="O91:O94"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="O53:O60"/>
-    <mergeCell ref="O61:O68"/>
-    <mergeCell ref="O69:O72"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="D87:M90"/>
-    <mergeCell ref="D91:M94"/>
-    <mergeCell ref="E95:M96"/>
-    <mergeCell ref="E97:M98"/>
-    <mergeCell ref="D83:M86"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="B45:B76"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="B5:B20"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="C45:C60"/>
-    <mergeCell ref="D45:D52"/>
-    <mergeCell ref="D53:D60"/>
     <mergeCell ref="E5:J8"/>
     <mergeCell ref="L5:L8"/>
     <mergeCell ref="E9:J10"/>
@@ -4526,6 +4435,97 @@
     <mergeCell ref="L13:L20"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="F47:F48"/>
+    <mergeCell ref="B45:B76"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="B5:B20"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="C45:C60"/>
+    <mergeCell ref="D45:D52"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="D87:M90"/>
+    <mergeCell ref="D91:M94"/>
+    <mergeCell ref="E95:M96"/>
+    <mergeCell ref="E97:M98"/>
+    <mergeCell ref="D83:M86"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="O87:O90"/>
+    <mergeCell ref="O91:O94"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="O53:O60"/>
+    <mergeCell ref="O61:O68"/>
+    <mergeCell ref="O69:O72"/>
+    <mergeCell ref="G104:M111"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="H154:H155"/>
+    <mergeCell ref="H156:H157"/>
+    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="H140:H141"/>
+    <mergeCell ref="H142:H143"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="G152:G155"/>
+    <mergeCell ref="G156:G159"/>
+    <mergeCell ref="G160:G163"/>
+    <mergeCell ref="G164:G167"/>
+    <mergeCell ref="G140:G143"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G124:G127"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="G116:G119"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="C104:C167"/>
+    <mergeCell ref="D104:D135"/>
+    <mergeCell ref="D136:D167"/>
+    <mergeCell ref="E104:E119"/>
+    <mergeCell ref="E120:E135"/>
+    <mergeCell ref="E136:E151"/>
+    <mergeCell ref="E152:E167"/>
+    <mergeCell ref="F104:F111"/>
+    <mergeCell ref="F112:F119"/>
+    <mergeCell ref="F120:F127"/>
+    <mergeCell ref="F128:F135"/>
+    <mergeCell ref="F136:F143"/>
+    <mergeCell ref="F144:F151"/>
+    <mergeCell ref="F152:F159"/>
+    <mergeCell ref="F160:F167"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
